--- a/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
+++ b/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Motherboard Assembly\Project Outputs for Motherboard Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C73873-9D27-4B83-B32F-3913E8128450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5560A4BE-8C33-4BAA-9F8B-4CFDB731F327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="470">
   <si>
     <t>Name</t>
   </si>
@@ -504,15 +504,15 @@
     <t>CC0402CRNPO9BN1R0</t>
   </si>
   <si>
+    <t>GRM155R61E105KA12D</t>
+  </si>
+  <si>
+    <t>CC0201KRX5R5BB105</t>
+  </si>
+  <si>
     <t>CL10B105MO8NNWC</t>
   </si>
   <si>
-    <t>GRM155R61E105KA12D</t>
-  </si>
-  <si>
-    <t>CC0201KRX5R5BB105</t>
-  </si>
-  <si>
     <t>ERJ-PB6B1131V</t>
   </si>
   <si>
@@ -891,6 +891,9 @@
     <t>PMS.PcbDoc</t>
   </si>
   <si>
+    <t>TransmitterBoard.PcbDoc, PMS.PcbDoc</t>
+  </si>
+  <si>
     <t>Airbrake Motor Controller.PcbDoc, M2RB.PcbDoc</t>
   </si>
   <si>
@@ -1017,37 +1020,37 @@
     <t>X3-WLB1608-2</t>
   </si>
   <si>
+    <t>CDBA5</t>
+  </si>
+  <si>
+    <t>RMQ24_3P1X3P1_TEX</t>
+  </si>
+  <si>
+    <t>PWP0028C_L</t>
+  </si>
+  <si>
+    <t>FP-EMPCB_SMAFSTJ_B_HT-MFG</t>
+  </si>
+  <si>
+    <t>CONN_B6B-XH-A(LF)(SN)_JST</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>SMTC-FTSH-105-01-L-DV-K_V</t>
+  </si>
+  <si>
+    <t>HDR1X5</t>
+  </si>
+  <si>
+    <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
+  </si>
+  <si>
+    <t>PULS-HX1188FNL-SMT-16_V</t>
+  </si>
+  <si>
     <t>1608[0603]</t>
-  </si>
-  <si>
-    <t>CDBA5</t>
-  </si>
-  <si>
-    <t>RMQ24_3P1X3P1_TEX</t>
-  </si>
-  <si>
-    <t>PWP0028C_L</t>
-  </si>
-  <si>
-    <t>FP-EMPCB_SMAFSTJ_B_HT-MFG</t>
-  </si>
-  <si>
-    <t>CONN_B6B-XH-A(LF)(SN)_JST</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>SMTC-FTSH-105-01-L-DV-K_V</t>
-  </si>
-  <si>
-    <t>HDR1X5</t>
-  </si>
-  <si>
-    <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
-  </si>
-  <si>
-    <t>PULS-HX1188FNL-SMT-16_V</t>
   </si>
   <si>
     <t>J1-0603</t>
@@ -1816,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
@@ -1838,19 +1841,19 @@
         <v>278</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1893,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H3">
-        <v>0.84772000000000003</v>
+        <v>0.84284999999999999</v>
       </c>
       <c r="I3">
-        <v>0.84772000000000003</v>
+        <v>0.84284999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1919,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H4">
         <v>0.46550000000000002</v>
@@ -1945,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H5">
         <v>0.23</v>
@@ -1994,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H7">
         <v>0.36499999999999999</v>
@@ -2020,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H8">
         <v>10.06</v>
@@ -2046,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H9">
         <v>0.82</v>
@@ -2072,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H10">
         <v>0.2301</v>
@@ -2118,293 +2121,284 @@
         <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H12">
         <v>0.08</v>
       </c>
       <c r="I12">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H13">
-        <v>0.08</v>
+        <v>0.42409999999999998</v>
       </c>
       <c r="I13">
-        <v>0.08</v>
+        <v>0.84819999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H14">
-        <v>0.42409999999999998</v>
+        <v>1.52</v>
       </c>
       <c r="I14">
-        <v>0.84819999999999995</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H15">
-        <v>1.52</v>
+        <v>5.09</v>
       </c>
       <c r="I15">
-        <v>1.52</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H16">
-        <v>4.4800000000000004</v>
+        <v>3.07</v>
       </c>
       <c r="I16">
-        <v>4.4800000000000004</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H17">
-        <v>3.07</v>
+        <v>0.126</v>
       </c>
       <c r="I17">
-        <v>9.2100000000000009</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>0.126</v>
+        <v>0.39229999999999998</v>
       </c>
       <c r="I18">
-        <v>0.126</v>
+        <v>0.39229999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>0.39229999999999998</v>
-      </c>
-      <c r="I19">
-        <v>0.39229999999999998</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="H20">
+        <v>2.7</v>
+      </c>
+      <c r="I20">
+        <v>10.8</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="H21">
-        <v>2.7</v>
+        <v>0.20810000000000001</v>
       </c>
       <c r="I21">
-        <v>10.8</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22">
-        <v>0.20810000000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.41620000000000001</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" t="s">
         <v>288</v>
       </c>
@@ -2412,698 +2406,704 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>336</v>
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>9.11</v>
+      </c>
+      <c r="I24">
+        <v>36.44</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="H25">
-        <v>9.11</v>
+        <v>4.08</v>
       </c>
       <c r="I25">
-        <v>36.44</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H26">
-        <v>4.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I26">
-        <v>8.15</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>131</v>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>327</v>
-      </c>
-      <c r="H27">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I27">
-        <v>3.64</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="H28">
+        <v>1.57</v>
+      </c>
+      <c r="I28">
+        <v>1.57</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H29">
-        <v>1.57</v>
+        <v>109.98</v>
       </c>
       <c r="I29">
-        <v>1.57</v>
+        <v>109.98</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H30">
-        <v>109.98</v>
+        <v>2.78</v>
       </c>
       <c r="I30">
-        <v>109.98</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>2.78</v>
+        <v>14.16</v>
       </c>
       <c r="I31">
-        <v>11.13</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="H32">
-        <v>14.16</v>
+        <v>2.1</v>
       </c>
       <c r="I32">
-        <v>14.16</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H33">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="I33">
-        <v>2.1</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H34">
-        <v>1.78</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I34">
-        <v>7.12</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="H35">
-        <v>2.3E-2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I35">
-        <v>6.9000000000000006E-2</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H36">
-        <v>1.0900000000000001</v>
+        <v>0.30070000000000002</v>
       </c>
       <c r="I36">
-        <v>14.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="H37">
-        <v>0.30070000000000002</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I37">
-        <v>1.2</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H38">
-        <v>9.8000000000000004E-2</v>
+        <v>5.46</v>
       </c>
       <c r="I38">
-        <v>0.19600000000000001</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>5.46</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I39">
-        <v>10.92</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I40">
-        <v>1.1200000000000001</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="H41">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I41">
+        <v>4.25</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H42">
-        <v>0.42499999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="I42">
-        <v>4.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>0.13</v>
+        <v>2.04</v>
       </c>
       <c r="I43">
-        <v>0.26</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="I44">
-        <v>4.08</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="H45">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="I45">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>1.25</v>
+        <v>2.37</v>
       </c>
       <c r="I46">
-        <v>1.25</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="H47">
-        <v>2.37</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I47">
-        <v>4.74</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H48">
-        <v>9.0999999999999998E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I48">
-        <v>9.0999999999999998E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H49">
-        <v>0.14000000000000001</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="I49">
-        <v>0.14000000000000001</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>48</v>
       </c>
       <c r="H50">
-        <v>0.75839999999999996</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>3.79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>354</v>
       </c>
       <c r="H51">
-        <v>2.0099999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I51">
-        <v>2.0099999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>353</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>4.5999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="I52">
-        <v>4.5999999999999996</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>279</v>
@@ -3112,73 +3112,70 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="H53">
-        <v>0.33</v>
+        <v>28.91</v>
       </c>
       <c r="I53">
-        <v>0.33</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="H54">
-        <v>28.91</v>
+        <v>0.44</v>
       </c>
       <c r="I54">
-        <v>28.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55">
-        <v>0.44</v>
-      </c>
-      <c r="I55">
-        <v>0.88</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
         <v>281</v>
@@ -3187,44 +3184,44 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="H56">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="I56">
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
-      </c>
-      <c r="H57">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="I57">
-        <v>0.83799999999999997</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
         <v>280</v>
@@ -3233,44 +3230,47 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>357</v>
+        <v>359</v>
+      </c>
+      <c r="H58">
+        <v>0.19</v>
+      </c>
+      <c r="I58">
+        <v>0.19</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H59">
-        <v>0.19</v>
+        <v>3.01</v>
       </c>
       <c r="I59">
-        <v>0.19</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>279</v>
@@ -3279,21 +3279,24 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H60">
-        <v>3.01</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="I60">
-        <v>3.01</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
         <v>279</v>
@@ -3302,39 +3305,42 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H61">
-        <v>0.19800000000000001</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="I61">
-        <v>0.19800000000000001</v>
+        <v>0.69240000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>361</v>
+        <v>338</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0.69240000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I62">
-        <v>0.69240000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3345,54 +3351,54 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I63">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>362</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
+        <v>379</v>
       </c>
       <c r="H64">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I64">
-        <v>1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3403,54 +3409,54 @@
         <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G65" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H65">
-        <v>4.0000000000000001E-3</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="I65">
-        <v>4.0000000000000001E-3</v>
+        <v>9.69E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G66" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H66">
-        <v>3.2300000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I66">
-        <v>9.69E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,74 +3467,74 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G67" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H67">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I67">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>114</v>
       </c>
-      <c r="C68" t="s">
-        <v>148</v>
-      </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="G68" t="s">
-        <v>380</v>
-      </c>
-      <c r="H68">
-        <v>0.1</v>
-      </c>
-      <c r="I68">
-        <v>0.3</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
         <v>114</v>
       </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="G69" t="s">
-        <v>381</v>
+        <v>383</v>
+      </c>
+      <c r="H69">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I69">
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3539,54 +3545,54 @@
         <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>363</v>
       </c>
       <c r="G70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H70">
-        <v>9.8000000000000004E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I70">
-        <v>0.19600000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G71" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H71">
-        <v>3.2000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="I71">
-        <v>3.2000000000000001E-2</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3597,25 +3603,25 @@
         <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G72" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H72">
-        <v>4.9000000000000002E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I72">
-        <v>0.34300000000000003</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3626,65 +3632,65 @@
         <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
         <v>279</v>
       </c>
       <c r="E73">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>362</v>
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>603</v>
       </c>
       <c r="G73" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H73">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="I73">
-        <v>2.5000000000000001E-2</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D74" t="s">
         <v>279</v>
       </c>
       <c r="E74">
-        <v>9</v>
-      </c>
-      <c r="F74">
-        <v>603</v>
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>363</v>
       </c>
       <c r="G74" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H74">
-        <v>1.0699999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I74">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
         <v>279</v>
@@ -3693,16 +3699,16 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G75" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H75">
-        <v>0.1</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="I75">
-        <v>0.1</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3713,25 +3719,25 @@
         <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G76" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H76">
-        <v>2.4799999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I76">
-        <v>2.4799999999999999E-2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3742,25 +3748,25 @@
         <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E77">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>327</v>
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>603</v>
       </c>
       <c r="G77" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H77">
-        <v>8.0000000000000002E-3</v>
+        <v>2.76E-2</v>
       </c>
       <c r="I77">
-        <v>0.104</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,65 +3777,65 @@
         <v>115</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H78">
-        <v>6.6000000000000003E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I78">
-        <v>0.33</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E79">
-        <v>49</v>
-      </c>
-      <c r="F79">
-        <v>603</v>
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>365</v>
       </c>
       <c r="G79" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H79">
-        <v>2.76E-2</v>
+        <v>0.33</v>
       </c>
       <c r="I79">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
         <v>280</v>
@@ -3838,27 +3844,27 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G80" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H80">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="I80">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
         <v>280</v>
@@ -3867,74 +3873,74 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G81" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H81">
-        <v>0.1</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="I81">
-        <v>0.1</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G82" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H82">
-        <v>6.2399999999999997E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="I82">
-        <v>6.2399999999999997E-2</v>
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>365</v>
+      </c>
+      <c r="G83">
         <v>2</v>
       </c>
-      <c r="F83" t="s">
-        <v>362</v>
-      </c>
-      <c r="G83" t="s">
-        <v>390</v>
-      </c>
       <c r="H83">
-        <v>2.18E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="I83">
-        <v>4.36E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3945,25 +3951,25 @@
         <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>364</v>
-      </c>
-      <c r="G84">
-        <v>2</v>
+        <v>363</v>
+      </c>
+      <c r="G84" t="s">
+        <v>392</v>
       </c>
       <c r="H84">
-        <v>5.0700000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I84">
-        <v>5.0700000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,54 +3980,54 @@
         <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G85" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H85">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I85">
-        <v>4.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G86" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H86">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I86">
-        <v>0.12</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,25 +4038,25 @@
         <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G87" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H87">
-        <v>5.0000000000000001E-3</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I87">
-        <v>5.0000000000000001E-3</v>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,54 +4067,54 @@
         <v>115</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G88" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H88">
-        <v>0.10199999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="I88">
-        <v>0.30599999999999999</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G89" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H89">
-        <v>0.35</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I89">
-        <v>0.35</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4119,25 +4125,25 @@
         <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G90" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H90">
-        <v>2.5999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I90">
-        <v>2.5999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4148,54 +4154,54 @@
         <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>365</v>
+      </c>
+      <c r="G91">
         <v>3</v>
       </c>
-      <c r="F91" t="s">
-        <v>362</v>
-      </c>
-      <c r="G91" t="s">
-        <v>396</v>
-      </c>
       <c r="H91">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I91">
-        <v>8.9999999999999993E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>364</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
+        <v>363</v>
+      </c>
+      <c r="G92" t="s">
+        <v>398</v>
       </c>
       <c r="H92">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I92">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4206,83 +4212,83 @@
         <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
         <v>284</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G93" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H93">
-        <v>3.0000000000000001E-3</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="I93">
-        <v>3.0000000000000001E-3</v>
+        <v>0.16980000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G94" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H94">
-        <v>5.6599999999999998E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I94">
-        <v>0.16980000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G95" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H95">
-        <v>1.2E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="I95">
-        <v>3.5999999999999997E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4293,25 +4299,25 @@
         <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G96" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H96">
-        <v>2.1100000000000001E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="I96">
-        <v>2.1100000000000001E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4322,25 +4328,25 @@
         <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G97" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H97">
-        <v>9.5899999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I97">
-        <v>9.5899999999999999E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4351,54 +4357,54 @@
         <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E98">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G98" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H98">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I98">
-        <v>7.1999999999999995E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G99" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H99">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I99">
-        <v>8.9999999999999993E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4408,26 +4414,26 @@
       <c r="B100" t="s">
         <v>115</v>
       </c>
-      <c r="C100" t="s">
-        <v>179</v>
+      <c r="C100">
+        <v>885012208079</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G100" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H100">
-        <v>6.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
       <c r="I100">
-        <v>3.5999999999999997E-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,26 +4443,26 @@
       <c r="B101" t="s">
         <v>115</v>
       </c>
-      <c r="C101">
-        <v>885012208079</v>
+      <c r="C101" t="s">
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>363</v>
       </c>
       <c r="G101" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H101">
-        <v>0.12</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I101">
-        <v>0.24</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4467,103 +4473,103 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G102" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H102">
-        <v>5.0000000000000001E-3</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="I102">
-        <v>5.0000000000000001E-3</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>61</v>
+      <c r="A103">
+        <v>744042004</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" t="s">
-        <v>181</v>
+        <v>116</v>
+      </c>
+      <c r="C103">
+        <v>744042004</v>
       </c>
       <c r="D103" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="E103">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G103" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H103">
-        <v>3.9399999999999998E-2</v>
+        <v>1.43</v>
       </c>
       <c r="I103">
-        <v>0.98499999999999999</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>744042004</v>
+      <c r="A104" t="s">
+        <v>63</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104">
-        <v>744042004</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G104" t="s">
-        <v>406</v>
-      </c>
-      <c r="H104">
-        <v>1.43</v>
-      </c>
-      <c r="I104">
-        <v>1.43</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>182</v>
       </c>
       <c r="D105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G105" t="s">
-        <v>406</v>
+        <v>408</v>
+      </c>
+      <c r="H105">
+        <v>0.38</v>
+      </c>
+      <c r="I105">
+        <v>0.38</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,25 +4580,25 @@
         <v>114</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G106" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H106">
-        <v>0.38</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="I106">
-        <v>0.38</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4603,25 +4609,25 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G107" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H107">
-        <v>0.97660000000000002</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I107">
-        <v>3.91</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4632,54 +4638,54 @@
         <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G108" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H108">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I108">
-        <v>8.9999999999999993E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D109" t="s">
         <v>282</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="G109" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H109">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I109">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4690,54 +4696,54 @@
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D110" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G110" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H110">
-        <v>0.25</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="I110">
-        <v>0.75</v>
+        <v>9.3899999999999997E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D111" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G111" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H111">
-        <v>9.3899999999999997E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="I111">
-        <v>9.3899999999999997E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,54 +4754,54 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G112" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H112">
-        <v>1.6199999999999999E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="I112">
-        <v>1.6199999999999999E-2</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G113" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H113">
-        <v>2.23E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="I113">
-        <v>2.23E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4806,54 +4812,54 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D114" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G114" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H114">
-        <v>1E-3</v>
+        <v>0.34</v>
       </c>
       <c r="I114">
-        <v>3.0000000000000001E-3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D115" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G115" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H115">
-        <v>0.34</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I115">
-        <v>0.34</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4864,7 +4870,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D116" t="s">
         <v>284</v>
@@ -4873,10 +4879,10 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G116" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H116">
         <v>5.1499999999999997E-2</v>
@@ -4893,25 +4899,25 @@
         <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D117" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>362</v>
-      </c>
-      <c r="G117" t="s">
-        <v>416</v>
+        <v>365</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>5.1499999999999997E-2</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>5.1499999999999997E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4922,25 +4928,25 @@
         <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D118" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G118">
         <v>10</v>
       </c>
       <c r="H118">
-        <v>0.2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I118">
-        <v>0.4</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4951,25 +4957,25 @@
         <v>114</v>
       </c>
       <c r="C119" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>362</v>
-      </c>
-      <c r="G119">
-        <v>10</v>
+        <v>338</v>
+      </c>
+      <c r="G119" t="s">
+        <v>418</v>
       </c>
       <c r="H119">
-        <v>2.1000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I119">
-        <v>6.3E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4980,65 +4986,65 @@
         <v>114</v>
       </c>
       <c r="C120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D120" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H120">
-        <v>1.4999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I120">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E121">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G121" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H121">
-        <v>3.0000000000000001E-3</v>
+        <v>0.111</v>
       </c>
       <c r="I121">
-        <v>0.12</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D122" t="s">
         <v>284</v>
@@ -5047,45 +5053,45 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G122" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H122">
-        <v>0.111</v>
+        <v>0.44529999999999997</v>
       </c>
       <c r="I122">
-        <v>0.111</v>
+        <v>0.44529999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="G123" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H123">
-        <v>0.44529999999999997</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I123">
-        <v>0.44529999999999997</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5096,65 +5102,65 @@
         <v>115</v>
       </c>
       <c r="C124" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D124" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G124" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H124">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I124">
-        <v>0.02</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D125" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="E125">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G125" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H125">
-        <v>6.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I125">
-        <v>4.8000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D126" t="s">
         <v>279</v>
@@ -5163,16 +5169,16 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G126" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H126">
-        <v>2.3E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I126">
-        <v>2.3E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5183,25 +5189,25 @@
         <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G127" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H127">
-        <v>5.0000000000000001E-3</v>
+        <v>0.104</v>
       </c>
       <c r="I127">
-        <v>5.0000000000000001E-3</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5212,199 +5218,199 @@
         <v>115</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="E128">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F128" t="s">
         <v>364</v>
       </c>
       <c r="G128" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H128">
-        <v>0.104</v>
+        <v>0.12570000000000001</v>
       </c>
       <c r="I128">
-        <v>2.39</v>
+        <v>0.75419999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>61</v>
+      <c r="A129">
+        <v>74477110</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" t="s">
-        <v>205</v>
+        <v>118</v>
+      </c>
+      <c r="C129">
+        <v>74477110</v>
       </c>
       <c r="D129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G129" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H129">
-        <v>0.12570000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="I129">
-        <v>0.75419999999999998</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>74477110</v>
+      <c r="A130" t="s">
+        <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130">
-        <v>74477110</v>
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="G130" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H130">
-        <v>2.12</v>
+        <v>0.1341</v>
       </c>
       <c r="I130">
-        <v>2.12</v>
+        <v>0.26819999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C131" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D131" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>327</v>
-      </c>
-      <c r="G131" t="s">
-        <v>423</v>
+        <v>365</v>
+      </c>
+      <c r="G131">
+        <v>12</v>
       </c>
       <c r="H131">
-        <v>0.1341</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I131">
-        <v>0.26819999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C132" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D132" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="E132">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F132" t="s">
-        <v>364</v>
-      </c>
-      <c r="G132">
-        <v>12</v>
+        <v>363</v>
+      </c>
+      <c r="G132" t="s">
+        <v>425</v>
       </c>
       <c r="H132">
-        <v>2.5000000000000001E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I132">
-        <v>0.25</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C133" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E133">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G133" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H133">
-        <v>1.35E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I133">
-        <v>0.24299999999999999</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B134" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D134" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E134">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F134" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G134" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H134">
-        <v>1.4999999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I134">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5415,170 +5421,170 @@
         <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D135" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G135" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H135">
-        <v>6.25E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="I135">
-        <v>0.25</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B136" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G136" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H136">
-        <v>3.7600000000000001E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="I136">
-        <v>0.1128</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D137" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G137" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H137">
-        <v>5.5899999999999998E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I137">
-        <v>0.1118</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G138" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H138">
-        <v>5.0000000000000001E-3</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="I138">
-        <v>0.01</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G139" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H139">
-        <v>6.2399999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I139">
-        <v>6.2399999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G140" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H140">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I140">
-        <v>6.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5589,25 +5595,25 @@
         <v>114</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D141" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G141" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H141">
-        <v>4.0000000000000001E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="I141">
-        <v>8.0000000000000002E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5618,54 +5624,54 @@
         <v>114</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D142" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G142" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H142">
-        <v>7.5999999999999998E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="I142">
-        <v>7.5999999999999998E-2</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B143" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C143" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G143" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H143">
-        <v>2.23E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I143">
-        <v>2.23E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5676,25 +5682,25 @@
         <v>115</v>
       </c>
       <c r="C144" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G144" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H144">
-        <v>8.0000000000000002E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I144">
-        <v>2.4E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5705,25 +5711,25 @@
         <v>115</v>
       </c>
       <c r="C145" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D145" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G145" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H145">
-        <v>5.6000000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="I145">
-        <v>5.6000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5734,83 +5740,83 @@
         <v>115</v>
       </c>
       <c r="C146" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D146" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E146">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G146" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H146">
-        <v>2E-3</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="I146">
-        <v>1.2E-2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D147" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G147" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H147">
-        <v>0.59589999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I147">
-        <v>1.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G148" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H148">
-        <v>0.1</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="I148">
-        <v>0.1</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5821,36 +5827,36 @@
         <v>115</v>
       </c>
       <c r="C149" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D149" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G149" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H149">
-        <v>3.3300000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I149">
-        <v>6.6600000000000006E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C150" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D150" t="s">
         <v>284</v>
@@ -5859,16 +5865,16 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>362</v>
-      </c>
-      <c r="G150" t="s">
-        <v>439</v>
+        <v>365</v>
+      </c>
+      <c r="G150">
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>0.1</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="I150">
-        <v>0.1</v>
+        <v>6.3299999999999995E-2</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5876,10 +5882,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D151" t="s">
         <v>284</v>
@@ -5888,45 +5894,45 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>364</v>
-      </c>
-      <c r="G151">
-        <v>36</v>
+        <v>363</v>
+      </c>
+      <c r="G151" t="s">
+        <v>441</v>
       </c>
       <c r="H151">
-        <v>6.3299999999999995E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I151">
-        <v>6.3299999999999995E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C152" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D152" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F152" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G152" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H152">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I152">
-        <v>3.0000000000000001E-3</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5937,228 +5943,228 @@
         <v>115</v>
       </c>
       <c r="C153" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D153" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G153" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H153">
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I153">
-        <v>0.14399999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D154" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F154" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G154" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H154">
-        <v>1.7999999999999999E-2</v>
+        <v>0.24</v>
       </c>
       <c r="I154">
-        <v>1.7999999999999999E-2</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D155" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G155" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H155">
-        <v>0.24</v>
+        <v>1.02</v>
       </c>
       <c r="I155">
-        <v>0.96</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B156" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C156" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D156" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>368</v>
-      </c>
-      <c r="G156" t="s">
-        <v>443</v>
+        <v>363</v>
+      </c>
+      <c r="G156">
+        <v>50</v>
       </c>
       <c r="H156">
-        <v>1.02</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I156">
-        <v>2.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B157" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C157" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D157" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E157">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>362</v>
-      </c>
-      <c r="G157">
-        <v>50</v>
+        <v>338</v>
+      </c>
+      <c r="G157" t="s">
+        <v>445</v>
       </c>
       <c r="H157">
-        <v>4.0000000000000001E-3</v>
+        <v>0.13</v>
       </c>
       <c r="I157">
-        <v>3.5999999999999997E-2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B158" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C158" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D158" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>327</v>
-      </c>
-      <c r="G158" t="s">
-        <v>444</v>
+        <v>338</v>
+      </c>
+      <c r="G158">
+        <v>60</v>
       </c>
       <c r="H158">
-        <v>0.13</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="I158">
-        <v>0.26</v>
+        <v>9.9199999999999997E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B159" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C159" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D159" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>327</v>
-      </c>
-      <c r="G159">
-        <v>60</v>
+        <v>365</v>
+      </c>
+      <c r="G159" t="s">
+        <v>446</v>
       </c>
       <c r="H159">
-        <v>2.4799999999999999E-2</v>
+        <v>0.17130000000000001</v>
       </c>
       <c r="I159">
-        <v>9.9199999999999997E-2</v>
+        <v>0.17130000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B160" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C160" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G160" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H160">
-        <v>0.17130000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I160">
-        <v>0.17130000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -6166,28 +6172,28 @@
         <v>60</v>
       </c>
       <c r="B161" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C161" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D161" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>362</v>
-      </c>
-      <c r="G161" t="s">
-        <v>446</v>
+        <v>363</v>
+      </c>
+      <c r="G161">
+        <v>75</v>
       </c>
       <c r="H161">
-        <v>9.8000000000000004E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I161">
-        <v>9.8000000000000004E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6198,25 +6204,25 @@
         <v>114</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D162" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>362</v>
-      </c>
-      <c r="G162">
-        <v>75</v>
+        <v>363</v>
+      </c>
+      <c r="G162" t="s">
+        <v>448</v>
       </c>
       <c r="H162">
-        <v>3.0000000000000001E-3</v>
+        <v>0.38</v>
       </c>
       <c r="I162">
-        <v>2.4E-2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -6227,25 +6233,25 @@
         <v>114</v>
       </c>
       <c r="C163" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>362</v>
-      </c>
-      <c r="G163" t="s">
-        <v>447</v>
+        <v>363</v>
+      </c>
+      <c r="G163">
+        <v>100</v>
       </c>
       <c r="H163">
-        <v>0.38</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I163">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -6256,25 +6262,25 @@
         <v>114</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D164" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G164">
         <v>100</v>
       </c>
       <c r="H164">
-        <v>4.0000000000000001E-3</v>
+        <v>0.3</v>
       </c>
       <c r="I164">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -6285,25 +6291,25 @@
         <v>114</v>
       </c>
       <c r="C165" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D165" t="s">
         <v>282</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F165" t="s">
-        <v>364</v>
-      </c>
-      <c r="G165">
-        <v>100</v>
+        <v>338</v>
+      </c>
+      <c r="G165" t="s">
+        <v>449</v>
       </c>
       <c r="H165">
-        <v>0.3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="I165">
-        <v>0.3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6314,25 +6320,25 @@
         <v>114</v>
       </c>
       <c r="C166" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D166" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E166">
         <v>6</v>
       </c>
       <c r="F166" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G166" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H166">
-        <v>6.1000000000000004E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I166">
-        <v>6.0999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6343,54 +6349,54 @@
         <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D167" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G167" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H167">
-        <v>4.0000000000000001E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I167">
-        <v>2.4E-2</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C168" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D168" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="F168" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="G168" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H168">
-        <v>0.14000000000000001</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="I168">
-        <v>0.28000000000000003</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6401,25 +6407,25 @@
         <v>115</v>
       </c>
       <c r="C169" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D169" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E169">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F169" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G169" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H169">
-        <v>1.1900000000000001E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="I169">
-        <v>1.19</v>
+        <v>0.96120000000000005</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6430,25 +6436,25 @@
         <v>115</v>
       </c>
       <c r="C170" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D170" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E170">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G170" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H170">
-        <v>1.78E-2</v>
+        <v>0.2147</v>
       </c>
       <c r="I170">
-        <v>0.96120000000000005</v>
+        <v>0.2147</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6459,25 +6465,25 @@
         <v>115</v>
       </c>
       <c r="C171" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D171" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G171" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H171">
-        <v>0.2147</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I171">
-        <v>0.2147</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6488,25 +6494,25 @@
         <v>115</v>
       </c>
       <c r="C172" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D172" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E172">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G172" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H172">
-        <v>6.0000000000000001E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I172">
-        <v>5.3999999999999999E-2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6517,141 +6523,141 @@
         <v>115</v>
       </c>
       <c r="C173" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D173" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E173">
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G173" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H173">
-        <v>1.1000000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I173">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B174" t="s">
         <v>115</v>
       </c>
       <c r="C174" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D174" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G174" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H174">
-        <v>1.1599999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="I174">
-        <v>3.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B175" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C175" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D175" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G175" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H175">
-        <v>0.44</v>
+        <v>0.1603</v>
       </c>
       <c r="I175">
-        <v>0.44</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B176" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C176" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D176" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E176">
         <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G176" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H176">
-        <v>0.1603</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I176">
-        <v>0.3206</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B177" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C177" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D177" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>362</v>
-      </c>
-      <c r="G177" t="s">
-        <v>454</v>
+        <v>363</v>
+      </c>
+      <c r="G177">
+        <v>150</v>
       </c>
       <c r="H177">
-        <v>9.8000000000000004E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I177">
-        <v>0.19600000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6662,7 +6668,7 @@
         <v>114</v>
       </c>
       <c r="C178" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D178" t="s">
         <v>280</v>
@@ -6671,27 +6677,27 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>362</v>
-      </c>
-      <c r="G178">
-        <v>150</v>
+        <v>363</v>
+      </c>
+      <c r="G178" t="s">
+        <v>456</v>
       </c>
       <c r="H178">
-        <v>3.0000000000000001E-3</v>
+        <v>3.705E-2</v>
       </c>
       <c r="I178">
-        <v>3.0000000000000001E-3</v>
+        <v>3.705E-2</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B179" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C179" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D179" t="s">
         <v>280</v>
@@ -6700,45 +6706,45 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G179" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H179">
-        <v>3.705E-2</v>
+        <v>0.106</v>
       </c>
       <c r="I179">
-        <v>3.705E-2</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B180" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C180" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D180" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>362</v>
-      </c>
-      <c r="G180" t="s">
-        <v>456</v>
+        <v>363</v>
+      </c>
+      <c r="G180">
+        <v>160</v>
       </c>
       <c r="H180">
-        <v>0.106</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="I180">
-        <v>0.106</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,25 +6755,25 @@
         <v>114</v>
       </c>
       <c r="C181" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D181" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
-      </c>
-      <c r="G181">
-        <v>160</v>
+        <v>365</v>
+      </c>
+      <c r="G181" t="s">
+        <v>458</v>
       </c>
       <c r="H181">
-        <v>4.8500000000000001E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="I181">
-        <v>4.8500000000000001E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6778,25 +6784,25 @@
         <v>114</v>
       </c>
       <c r="C182" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D182" t="s">
         <v>282</v>
       </c>
       <c r="E182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
-      </c>
-      <c r="G182" t="s">
-        <v>457</v>
+        <v>338</v>
+      </c>
+      <c r="G182">
+        <v>220</v>
       </c>
       <c r="H182">
-        <v>2.8199999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I182">
-        <v>5.6399999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6807,25 +6813,25 @@
         <v>114</v>
       </c>
       <c r="C183" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D183" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>327</v>
-      </c>
-      <c r="G183">
-        <v>220</v>
+        <v>371</v>
+      </c>
+      <c r="G183" t="s">
+        <v>459</v>
       </c>
       <c r="H183">
-        <v>1.7000000000000001E-2</v>
+        <v>0.63</v>
       </c>
       <c r="I183">
-        <v>1.7000000000000001E-2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6836,25 +6842,25 @@
         <v>114</v>
       </c>
       <c r="C184" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D184" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>370</v>
-      </c>
-      <c r="G184" t="s">
-        <v>458</v>
+        <v>363</v>
+      </c>
+      <c r="G184">
+        <v>260</v>
       </c>
       <c r="H184">
-        <v>0.63</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="I184">
-        <v>1.26</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6865,7 +6871,7 @@
         <v>114</v>
       </c>
       <c r="C185" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D185" t="s">
         <v>284</v>
@@ -6874,16 +6880,16 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
-      </c>
-      <c r="G185">
-        <v>260</v>
+        <v>363</v>
+      </c>
+      <c r="G185" t="s">
+        <v>460</v>
       </c>
       <c r="H185">
-        <v>9.5899999999999999E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="I185">
-        <v>9.5899999999999999E-2</v>
+        <v>5.74E-2</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6894,25 +6900,25 @@
         <v>114</v>
       </c>
       <c r="C186" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D186" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
-      </c>
-      <c r="G186" t="s">
-        <v>459</v>
+        <v>338</v>
+      </c>
+      <c r="G186">
+        <v>330</v>
       </c>
       <c r="H186">
-        <v>5.74E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I186">
-        <v>5.74E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6923,25 +6929,25 @@
         <v>114</v>
       </c>
       <c r="C187" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D187" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E187">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G187">
         <v>330</v>
       </c>
       <c r="H187">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I187">
-        <v>5.3999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6952,54 +6958,54 @@
         <v>114</v>
       </c>
       <c r="C188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D188" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G188">
         <v>330</v>
       </c>
       <c r="H188">
-        <v>5.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I188">
-        <v>5.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C189" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D189" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
-      </c>
-      <c r="G189">
-        <v>330</v>
+        <v>365</v>
+      </c>
+      <c r="G189" t="s">
+        <v>461</v>
       </c>
       <c r="H189">
-        <v>9.8000000000000004E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="I189">
-        <v>9.8000000000000004E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -7010,54 +7016,54 @@
         <v>115</v>
       </c>
       <c r="C190" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D190" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G190" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H190">
-        <v>4.8599999999999997E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="I190">
-        <v>4.8599999999999997E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B191" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D191" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G191" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H191">
-        <v>4.9599999999999998E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I191">
-        <v>4.9599999999999998E-2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7068,25 +7074,25 @@
         <v>114</v>
       </c>
       <c r="C192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D192" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>327</v>
-      </c>
-      <c r="G192" t="s">
-        <v>461</v>
+        <v>338</v>
+      </c>
+      <c r="G192">
+        <v>470</v>
       </c>
       <c r="H192">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I192">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7097,54 +7103,54 @@
         <v>114</v>
       </c>
       <c r="C193" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D193" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E193">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F193" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G193">
         <v>470</v>
       </c>
       <c r="H193">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I193">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B194" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C194" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D194" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="E194">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
-      </c>
-      <c r="G194">
-        <v>470</v>
+        <v>338</v>
+      </c>
+      <c r="G194" t="s">
+        <v>463</v>
       </c>
       <c r="H194">
-        <v>1.2E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="I194">
-        <v>0.12</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7155,164 +7161,164 @@
         <v>115</v>
       </c>
       <c r="C195" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D195" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="E195">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F195" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G195" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H195">
-        <v>0.14099999999999999</v>
+        <v>0.1115</v>
       </c>
       <c r="I195">
-        <v>2.4</v>
+        <v>0.5575</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B196" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C196" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D196" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E196">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F196" t="s">
-        <v>362</v>
-      </c>
-      <c r="G196" t="s">
-        <v>462</v>
+        <v>363</v>
+      </c>
+      <c r="G196">
+        <v>500</v>
       </c>
       <c r="H196">
-        <v>0.1115</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="I196">
-        <v>0.5575</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>60</v>
-      </c>
-      <c r="B197" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C197" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D197" t="s">
         <v>279</v>
       </c>
       <c r="E197">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
-      </c>
-      <c r="G197">
-        <v>500</v>
+        <v>338</v>
+      </c>
+      <c r="G197" t="s">
+        <v>464</v>
       </c>
       <c r="H197">
-        <v>2.9499999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I197">
-        <v>0.17699999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C198" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D198" t="s">
         <v>279</v>
       </c>
       <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198" t="s">
-        <v>327</v>
+        <v>12</v>
+      </c>
+      <c r="F198">
+        <v>603</v>
       </c>
       <c r="G198" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H198">
-        <v>0.1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I198">
-        <v>0.1</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="B199" t="s">
+        <v>114</v>
       </c>
       <c r="C199" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D199" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="E199">
-        <v>12</v>
-      </c>
-      <c r="F199">
-        <v>603</v>
-      </c>
-      <c r="G199" t="s">
-        <v>463</v>
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>365</v>
+      </c>
+      <c r="G199">
+        <v>680</v>
       </c>
       <c r="H199">
-        <v>2.5999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I199">
-        <v>0.312</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B200" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C200" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D200" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F200" t="s">
-        <v>364</v>
-      </c>
-      <c r="G200">
-        <v>680</v>
+        <v>338</v>
+      </c>
+      <c r="G200" t="s">
+        <v>465</v>
       </c>
       <c r="H200">
-        <v>0.1</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="I200">
-        <v>0.2</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -7323,36 +7329,33 @@
         <v>115</v>
       </c>
       <c r="C201" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D201" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E201">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G201" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H201">
-        <v>4.3900000000000002E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="I201">
-        <v>0.2195</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>61</v>
-      </c>
-      <c r="B202" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C202" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="D202" t="s">
         <v>284</v>
@@ -7361,24 +7364,24 @@
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G202" t="s">
-        <v>464</v>
+        <v>68</v>
       </c>
       <c r="H202">
-        <v>2.4799999999999999E-2</v>
+        <v>6.44</v>
       </c>
       <c r="I202">
-        <v>2.4799999999999999E-2</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C203" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D203" t="s">
         <v>284</v>
@@ -7387,42 +7390,36 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G203" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H203">
-        <v>6.44</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="I203">
-        <v>6.44</v>
+        <v>0.80620000000000003</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>69</v>
-      </c>
-      <c r="C204" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
       </c>
       <c r="D204" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F204" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G204" t="s">
-        <v>69</v>
-      </c>
-      <c r="H204">
-        <v>0.81086999999999998</v>
-      </c>
-      <c r="I204">
-        <v>0.81086999999999998</v>
+        <v>466</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -7433,16 +7430,16 @@
         <v>115</v>
       </c>
       <c r="D205" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E205">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G205" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -7453,24 +7450,24 @@
         <v>115</v>
       </c>
       <c r="D206" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G206" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B207" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D207" t="s">
         <v>282</v>
@@ -7479,139 +7476,119 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="G207" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>60</v>
-      </c>
-      <c r="B208" t="s">
-        <v>114</v>
+        <v>70</v>
+      </c>
+      <c r="C208" t="s">
+        <v>70</v>
       </c>
       <c r="D208" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="G208" t="s">
-        <v>466</v>
+        <v>70</v>
+      </c>
+      <c r="H208">
+        <v>1.66</v>
+      </c>
+      <c r="I208">
+        <v>1.66</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B209" t="s">
+        <v>78</v>
       </c>
       <c r="C209" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D209" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G209" t="s">
-        <v>70</v>
+        <v>378</v>
       </c>
       <c r="H209">
-        <v>1.66</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I209">
-        <v>1.66</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B210" t="s">
         <v>78</v>
       </c>
       <c r="C210" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D210" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F210" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G210" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H210">
-        <v>16.600000000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I210">
-        <v>16.600000000000001</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>72</v>
-      </c>
-      <c r="B211" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C211" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D211" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F211" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G211" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H211">
-        <v>2.2999999999999998</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I211">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>73</v>
-      </c>
-      <c r="C212" t="s">
-        <v>73</v>
-      </c>
-      <c r="D212" t="s">
-        <v>284</v>
-      </c>
-      <c r="E212">
-        <v>3</v>
-      </c>
-      <c r="F212" t="s">
-        <v>376</v>
-      </c>
-      <c r="G212" t="s">
-        <v>377</v>
-      </c>
-      <c r="H212">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="I212">
         <v>12.69</v>
       </c>
     </row>

--- a/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
+++ b/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Motherboard Assembly\Project Outputs for Motherboard Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5560A4BE-8C33-4BAA-9F8B-4CFDB731F327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{793D7967-6A92-4526-A963-B50CA1E482ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="466">
   <si>
     <t>Name</t>
   </si>
@@ -504,15 +504,15 @@
     <t>CC0402CRNPO9BN1R0</t>
   </si>
   <si>
+    <t>CC0201KRX5R5BB105</t>
+  </si>
+  <si>
+    <t>CL10B105MO8NNWC</t>
+  </si>
+  <si>
     <t>GRM155R61E105KA12D</t>
   </si>
   <si>
-    <t>CC0201KRX5R5BB105</t>
-  </si>
-  <si>
-    <t>CL10B105MO8NNWC</t>
-  </si>
-  <si>
     <t>ERJ-PB6B1131V</t>
   </si>
   <si>
@@ -750,13 +750,13 @@
     <t>ERJ-2RKF75R0X</t>
   </si>
   <si>
-    <t>RT0402BRD0778K7L</t>
+    <t>RC0402FR-0778K7L</t>
   </si>
   <si>
     <t>RC0402FR-07100RL</t>
   </si>
   <si>
-    <t>SG732ATTD101K</t>
+    <t>RC0805FR-07100RL</t>
   </si>
   <si>
     <t>CRGH0603J100K</t>
@@ -774,7 +774,7 @@
     <t>GRM155R71H104KE14J</t>
   </si>
   <si>
-    <t>GCM21BR72A104KA37L</t>
+    <t>CL21B104KCFNNNE</t>
   </si>
   <si>
     <t>CC0402JRNPO9BN101</t>
@@ -783,25 +783,19 @@
     <t>GRM32ER61A107ME20K</t>
   </si>
   <si>
-    <t>GRM32ER61A107ME20L</t>
-  </si>
-  <si>
     <t>UWT1H101MNL1GS</t>
   </si>
   <si>
     <t>MLF2012C101KT000</t>
   </si>
   <si>
-    <t>GRM188R60J106ME47D</t>
-  </si>
-  <si>
     <t>ERJ-2RKF1500X</t>
   </si>
   <si>
-    <t>ERA-3AEB154V</t>
-  </si>
-  <si>
-    <t>GRM155R61A154KE19J</t>
+    <t>PFR05S-154-FNH</t>
+  </si>
+  <si>
+    <t>CL05A154KP5NNNC</t>
   </si>
   <si>
     <t>RC0402JR-07160RL</t>
@@ -825,7 +819,7 @@
     <t>CR0603-JW-331ELF</t>
   </si>
   <si>
-    <t>ERJ-2RKF3300X</t>
+    <t>CRGCQ0805F330R</t>
   </si>
   <si>
     <t>RC0402FR-07330RL</t>
@@ -846,7 +840,7 @@
     <t>RC0402FR-07470RL</t>
   </si>
   <si>
-    <t>GRM188R71C474KA88D</t>
+    <t>CL10B474KO8NNNC</t>
   </si>
   <si>
     <t>GRT155R61E474ME01D</t>
@@ -1143,9 +1137,6 @@
     <t>C1210</t>
   </si>
   <si>
-    <t>14-1210</t>
-  </si>
-  <si>
     <t>PCAP_8x10-ELECT_NCA</t>
   </si>
   <si>
@@ -1380,7 +1371,7 @@
     <t>73.2k</t>
   </si>
   <si>
-    <t>78.7K</t>
+    <t>78.7k</t>
   </si>
   <si>
     <t>100k</t>
@@ -1399,9 +1390,6 @@
   </si>
   <si>
     <t>100uH</t>
-  </si>
-  <si>
-    <t>120nF</t>
   </si>
   <si>
     <t>150k</t>
@@ -1819,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
@@ -1838,22 +1826,22 @@
         <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1864,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1890,13 +1878,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H3">
         <v>0.84284999999999999</v>
@@ -1916,13 +1904,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H4">
         <v>0.46550000000000002</v>
@@ -1942,13 +1930,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H5">
         <v>0.23</v>
@@ -1965,7 +1953,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1991,19 +1979,19 @@
         <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H7">
-        <v>0.36499999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="I7">
-        <v>0.36499999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2017,13 +2005,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H8">
         <v>10.06</v>
@@ -2043,13 +2031,13 @@
         <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H9">
         <v>0.82</v>
@@ -2069,13 +2057,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H10">
         <v>0.2301</v>
@@ -2095,7 +2083,7 @@
         <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2121,13 +2109,13 @@
         <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H12">
         <v>0.08</v>
@@ -2147,13 +2135,13 @@
         <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H13">
         <v>0.42409999999999998</v>
@@ -2173,13 +2161,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H14">
         <v>1.52</v>
@@ -2199,13 +2187,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H15">
         <v>5.09</v>
@@ -2225,13 +2213,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H16">
         <v>3.07</v>
@@ -2251,13 +2239,13 @@
         <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H17">
         <v>0.126</v>
@@ -2274,7 +2262,7 @@
         <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2300,13 +2288,13 @@
         <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2320,13 +2308,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H20">
         <v>2.7</v>
@@ -2346,7 +2334,7 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2369,13 +2357,13 @@
         <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2383,13 +2371,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2400,7 +2388,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -2426,13 +2414,13 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H25">
         <v>4.08</v>
@@ -2449,13 +2437,13 @@
         <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E26">
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H26">
         <v>0.14000000000000001</v>
@@ -2472,13 +2460,13 @@
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2492,13 +2480,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H28">
         <v>1.57</v>
@@ -2518,13 +2506,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H29">
         <v>109.98</v>
@@ -2544,13 +2532,13 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H30">
         <v>2.78</v>
@@ -2567,7 +2555,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2593,13 +2581,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H32">
         <v>2.1</v>
@@ -2619,13 +2607,13 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H33">
         <v>1.78</v>
@@ -2645,13 +2633,13 @@
         <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H34">
         <v>2.3E-2</v>
@@ -2668,7 +2656,7 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E35">
         <v>13</v>
@@ -2694,7 +2682,7 @@
         <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2720,13 +2708,13 @@
         <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H37">
         <v>9.8000000000000004E-2</v>
@@ -2746,13 +2734,13 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H38">
         <v>5.46</v>
@@ -2769,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2792,13 +2780,13 @@
         <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2812,13 +2800,13 @@
         <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E41">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H41">
         <v>0.42499999999999999</v>
@@ -2838,13 +2826,13 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H42">
         <v>0.13</v>
@@ -2861,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2884,7 +2872,7 @@
         <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2910,13 +2898,13 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H45">
         <v>1.25</v>
@@ -2933,7 +2921,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2959,13 +2947,13 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H47">
         <v>9.0999999999999998E-2</v>
@@ -2985,13 +2973,13 @@
         <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H48">
         <v>0.14000000000000001</v>
@@ -3011,13 +2999,13 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E49">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H49">
         <v>0.75839999999999996</v>
@@ -3034,7 +3022,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3057,13 +3045,13 @@
         <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H51">
         <v>4.5999999999999996</v>
@@ -3083,7 +3071,7 @@
         <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3106,13 +3094,13 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H53">
         <v>28.91</v>
@@ -3132,7 +3120,7 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3158,13 +3146,13 @@
         <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3178,19 +3166,19 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H56">
-        <v>0.83799999999999997</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="I56">
-        <v>0.83799999999999997</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3204,13 +3192,13 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3224,13 +3212,13 @@
         <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H58">
         <v>0.19</v>
@@ -3250,13 +3238,13 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H59">
         <v>3.01</v>
@@ -3273,13 +3261,13 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H60">
         <v>0.19800000000000001</v>
@@ -3299,13 +3287,13 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H61">
         <v>0.69240000000000002</v>
@@ -3325,13 +3313,13 @@
         <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3354,13 +3342,13 @@
         <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3383,16 +3371,16 @@
         <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G64" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H64">
         <v>4.0000000000000001E-3</v>
@@ -3412,16 +3400,16 @@
         <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G65" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H65">
         <v>3.2300000000000002E-2</v>
@@ -3441,16 +3429,16 @@
         <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G66" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H66">
         <v>4.0000000000000001E-3</v>
@@ -3470,16 +3458,16 @@
         <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G67" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H67">
         <v>0.1</v>
@@ -3496,16 +3484,16 @@
         <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G68" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3519,16 +3507,16 @@
         <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H69">
         <v>9.8000000000000004E-2</v>
@@ -3548,22 +3536,22 @@
         <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H70">
-        <v>3.2000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I70">
-        <v>3.2000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3577,22 +3565,22 @@
         <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E71">
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H71">
-        <v>4.9000000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I71">
-        <v>0.34300000000000003</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3606,16 +3594,16 @@
         <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E72">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G72" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H72">
         <v>5.0000000000000001E-3</v>
@@ -3635,7 +3623,7 @@
         <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E73">
         <v>9</v>
@@ -3644,7 +3632,7 @@
         <v>603</v>
       </c>
       <c r="G73" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H73">
         <v>1.0699999999999999E-2</v>
@@ -3664,16 +3652,16 @@
         <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G74" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H74">
         <v>0.1</v>
@@ -3693,16 +3681,16 @@
         <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G75" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H75">
         <v>2.4799999999999999E-2</v>
@@ -3722,22 +3710,22 @@
         <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E76">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>363</v>
+        <v>49</v>
+      </c>
+      <c r="F76">
+        <v>603</v>
       </c>
       <c r="G76" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H76">
-        <v>6.6000000000000003E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="I76">
-        <v>0.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3751,22 +3739,22 @@
         <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="E77">
-        <v>49</v>
-      </c>
-      <c r="F77">
-        <v>603</v>
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>336</v>
       </c>
       <c r="G77" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H77">
-        <v>2.76E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I77">
-        <v>1.38</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3780,22 +3768,22 @@
         <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="G78" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H78">
-        <v>8.0000000000000002E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I78">
-        <v>0.104</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3809,16 +3797,16 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G79" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H79">
         <v>0.33</v>
@@ -3838,16 +3826,16 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G80" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H80">
         <v>0.1</v>
@@ -3867,16 +3855,16 @@
         <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G81" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H81">
         <v>6.2399999999999997E-2</v>
@@ -3896,16 +3884,16 @@
         <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G82" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H82">
         <v>2.18E-2</v>
@@ -3925,13 +3913,13 @@
         <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -3954,16 +3942,16 @@
         <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G84" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H84">
         <v>4.0000000000000001E-3</v>
@@ -3983,16 +3971,16 @@
         <v>165</v>
       </c>
       <c r="D85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E85">
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G85" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H85">
         <v>1.2E-2</v>
@@ -4012,16 +4000,16 @@
         <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G86" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H86">
         <v>5.0000000000000001E-3</v>
@@ -4041,16 +4029,16 @@
         <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E87">
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G87" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H87">
         <v>0.10199999999999999</v>
@@ -4070,16 +4058,16 @@
         <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G88" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H88">
         <v>0.35</v>
@@ -4099,16 +4087,16 @@
         <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G89" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H89">
         <v>2.5999999999999999E-2</v>
@@ -4128,16 +4116,16 @@
         <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E90">
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G90" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H90">
         <v>3.0000000000000001E-3</v>
@@ -4157,13 +4145,13 @@
         <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -4186,16 +4174,16 @@
         <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G92" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H92">
         <v>3.0000000000000001E-3</v>
@@ -4215,16 +4203,16 @@
         <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G93" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H93">
         <v>5.6599999999999998E-2</v>
@@ -4244,16 +4232,16 @@
         <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G94" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H94">
         <v>1.2E-2</v>
@@ -4273,16 +4261,16 @@
         <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G95" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H95">
         <v>2.1100000000000001E-2</v>
@@ -4302,16 +4290,16 @@
         <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G96" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H96">
         <v>9.5899999999999999E-2</v>
@@ -4331,16 +4319,16 @@
         <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E97">
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G97" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H97">
         <v>4.0000000000000001E-3</v>
@@ -4360,16 +4348,16 @@
         <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G98" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H98">
         <v>3.0000000000000001E-3</v>
@@ -4389,16 +4377,16 @@
         <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E99">
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G99" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H99">
         <v>6.0000000000000001E-3</v>
@@ -4418,16 +4406,16 @@
         <v>885012208079</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G100" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H100">
         <v>0.12</v>
@@ -4447,16 +4435,16 @@
         <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G101" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H101">
         <v>5.0000000000000001E-3</v>
@@ -4476,16 +4464,16 @@
         <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E102">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G102" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H102">
         <v>3.9399999999999998E-2</v>
@@ -4505,16 +4493,16 @@
         <v>744042004</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G103" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H103">
         <v>1.43</v>
@@ -4531,16 +4519,16 @@
         <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G104" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4554,16 +4542,16 @@
         <v>182</v>
       </c>
       <c r="D105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G105" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H105">
         <v>0.38</v>
@@ -4583,16 +4571,16 @@
         <v>183</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E106">
         <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G106" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H106">
         <v>0.97660000000000002</v>
@@ -4612,16 +4600,16 @@
         <v>184</v>
       </c>
       <c r="D107" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E107">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G107" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H107">
         <v>3.0000000000000001E-3</v>
@@ -4641,16 +4629,16 @@
         <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G108" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H108">
         <v>0.1</v>
@@ -4670,16 +4658,16 @@
         <v>186</v>
       </c>
       <c r="D109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G109" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4699,16 +4687,16 @@
         <v>187</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G110" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H110">
         <v>9.3899999999999997E-2</v>
@@ -4728,16 +4716,16 @@
         <v>188</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G111" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H111">
         <v>1.6199999999999999E-2</v>
@@ -4757,16 +4745,16 @@
         <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G112" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H112">
         <v>2.23E-2</v>
@@ -4786,16 +4774,16 @@
         <v>190</v>
       </c>
       <c r="D113" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G113" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H113">
         <v>1E-3</v>
@@ -4815,16 +4803,16 @@
         <v>191</v>
       </c>
       <c r="D114" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G114" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H114">
         <v>0.34</v>
@@ -4844,16 +4832,16 @@
         <v>192</v>
       </c>
       <c r="D115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G115" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H115">
         <v>5.1499999999999997E-2</v>
@@ -4873,16 +4861,16 @@
         <v>193</v>
       </c>
       <c r="D116" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G116" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H116">
         <v>5.1499999999999997E-2</v>
@@ -4902,13 +4890,13 @@
         <v>194</v>
       </c>
       <c r="D117" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G117">
         <v>10</v>
@@ -4931,13 +4919,13 @@
         <v>195</v>
       </c>
       <c r="D118" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E118">
         <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -4960,16 +4948,16 @@
         <v>196</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E119">
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G119" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H119">
         <v>1.4999999999999999E-2</v>
@@ -4989,16 +4977,16 @@
         <v>197</v>
       </c>
       <c r="D120" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E120">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G120" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H120">
         <v>3.0000000000000001E-3</v>
@@ -5018,16 +5006,16 @@
         <v>198</v>
       </c>
       <c r="D121" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G121" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H121">
         <v>0.111</v>
@@ -5047,16 +5035,16 @@
         <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G122" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H122">
         <v>0.44529999999999997</v>
@@ -5076,16 +5064,16 @@
         <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E123">
         <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G123" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H123">
         <v>5.0000000000000001E-3</v>
@@ -5105,16 +5093,16 @@
         <v>201</v>
       </c>
       <c r="D124" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E124">
         <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G124" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H124">
         <v>6.0000000000000001E-3</v>
@@ -5134,16 +5122,16 @@
         <v>202</v>
       </c>
       <c r="D125" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G125" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H125">
         <v>2.3E-2</v>
@@ -5163,16 +5151,16 @@
         <v>203</v>
       </c>
       <c r="D126" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G126" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H126">
         <v>5.0000000000000001E-3</v>
@@ -5192,16 +5180,16 @@
         <v>204</v>
       </c>
       <c r="D127" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E127">
         <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G127" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H127">
         <v>0.104</v>
@@ -5221,16 +5209,16 @@
         <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E128">
         <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G128" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H128">
         <v>0.12570000000000001</v>
@@ -5250,16 +5238,16 @@
         <v>74477110</v>
       </c>
       <c r="D129" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G129" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H129">
         <v>2.12</v>
@@ -5279,16 +5267,16 @@
         <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G130" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H130">
         <v>0.1341</v>
@@ -5308,13 +5296,13 @@
         <v>207</v>
       </c>
       <c r="D131" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E131">
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G131">
         <v>12</v>
@@ -5337,16 +5325,16 @@
         <v>208</v>
       </c>
       <c r="D132" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E132">
         <v>18</v>
       </c>
       <c r="F132" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G132" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H132">
         <v>1.35E-2</v>
@@ -5366,16 +5354,16 @@
         <v>209</v>
       </c>
       <c r="D133" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E133">
         <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G133" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H133">
         <v>1.4999999999999999E-2</v>
@@ -5395,16 +5383,16 @@
         <v>210</v>
       </c>
       <c r="D134" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E134">
         <v>4</v>
       </c>
       <c r="F134" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G134" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H134">
         <v>6.25E-2</v>
@@ -5424,16 +5412,16 @@
         <v>211</v>
       </c>
       <c r="D135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E135">
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G135" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H135">
         <v>3.7600000000000001E-2</v>
@@ -5453,16 +5441,16 @@
         <v>212</v>
       </c>
       <c r="D136" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G136" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H136">
         <v>5.5899999999999998E-2</v>
@@ -5482,16 +5470,16 @@
         <v>213</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G137" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H137">
         <v>5.0000000000000001E-3</v>
@@ -5511,16 +5499,16 @@
         <v>214</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G138" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H138">
         <v>6.2399999999999997E-2</v>
@@ -5540,16 +5528,16 @@
         <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G139" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H139">
         <v>6.0000000000000001E-3</v>
@@ -5569,16 +5557,16 @@
         <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G140" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H140">
         <v>4.0000000000000001E-3</v>
@@ -5598,16 +5586,16 @@
         <v>217</v>
       </c>
       <c r="D141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G141" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H141">
         <v>7.5999999999999998E-2</v>
@@ -5627,16 +5615,16 @@
         <v>218</v>
       </c>
       <c r="D142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G142" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H142">
         <v>2.23E-2</v>
@@ -5656,16 +5644,16 @@
         <v>219</v>
       </c>
       <c r="D143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E143">
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G143" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H143">
         <v>8.0000000000000002E-3</v>
@@ -5685,16 +5673,16 @@
         <v>220</v>
       </c>
       <c r="D144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G144" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H144">
         <v>5.6000000000000001E-2</v>
@@ -5714,16 +5702,16 @@
         <v>221</v>
       </c>
       <c r="D145" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E145">
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G145" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H145">
         <v>2E-3</v>
@@ -5743,16 +5731,16 @@
         <v>222</v>
       </c>
       <c r="D146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E146">
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G146" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H146">
         <v>0.59589999999999999</v>
@@ -5772,16 +5760,16 @@
         <v>223</v>
       </c>
       <c r="D147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G147" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H147">
         <v>0.1</v>
@@ -5801,16 +5789,16 @@
         <v>224</v>
       </c>
       <c r="D148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E148">
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G148" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H148">
         <v>3.3300000000000003E-2</v>
@@ -5830,16 +5818,16 @@
         <v>225</v>
       </c>
       <c r="D149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G149" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H149">
         <v>0.1</v>
@@ -5859,13 +5847,13 @@
         <v>226</v>
       </c>
       <c r="D150" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G150">
         <v>36</v>
@@ -5888,16 +5876,16 @@
         <v>227</v>
       </c>
       <c r="D151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G151" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H151">
         <v>3.0000000000000001E-3</v>
@@ -5917,16 +5905,16 @@
         <v>228</v>
       </c>
       <c r="D152" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E152">
         <v>4</v>
       </c>
       <c r="F152" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G152" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H152">
         <v>3.5999999999999997E-2</v>
@@ -5946,16 +5934,16 @@
         <v>229</v>
       </c>
       <c r="D153" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G153" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H153">
         <v>1.7999999999999999E-2</v>
@@ -5975,16 +5963,16 @@
         <v>230</v>
       </c>
       <c r="D154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E154">
         <v>4</v>
       </c>
       <c r="F154" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G154" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H154">
         <v>0.24</v>
@@ -6004,22 +5992,22 @@
         <v>231</v>
       </c>
       <c r="D155" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E155">
         <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G155" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H155">
-        <v>1.02</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="I155">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6033,13 +6021,13 @@
         <v>232</v>
       </c>
       <c r="D156" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E156">
         <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G156">
         <v>50</v>
@@ -6062,16 +6050,16 @@
         <v>233</v>
       </c>
       <c r="D157" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E157">
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G157" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H157">
         <v>0.13</v>
@@ -6091,13 +6079,13 @@
         <v>234</v>
       </c>
       <c r="D158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E158">
         <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G158">
         <v>60</v>
@@ -6120,16 +6108,16 @@
         <v>235</v>
       </c>
       <c r="D159" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G159" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H159">
         <v>0.17130000000000001</v>
@@ -6149,16 +6137,16 @@
         <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G160" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H160">
         <v>9.8000000000000004E-2</v>
@@ -6178,13 +6166,13 @@
         <v>237</v>
       </c>
       <c r="D161" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E161">
         <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G161">
         <v>75</v>
@@ -6207,22 +6195,22 @@
         <v>238</v>
       </c>
       <c r="D162" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G162" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H162">
-        <v>0.38</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="I162">
-        <v>0.38</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -6236,13 +6224,13 @@
         <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E163">
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G163">
         <v>100</v>
@@ -6265,22 +6253,22 @@
         <v>240</v>
       </c>
       <c r="D164" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G164">
         <v>100</v>
       </c>
       <c r="H164">
-        <v>0.3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I164">
-        <v>0.3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -6294,16 +6282,16 @@
         <v>241</v>
       </c>
       <c r="D165" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E165">
         <v>6</v>
       </c>
       <c r="F165" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G165" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H165">
         <v>6.1000000000000004E-3</v>
@@ -6323,16 +6311,16 @@
         <v>242</v>
       </c>
       <c r="D166" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E166">
         <v>6</v>
       </c>
       <c r="F166" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G166" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H166">
         <v>4.0000000000000001E-3</v>
@@ -6352,16 +6340,16 @@
         <v>243</v>
       </c>
       <c r="D167" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E167">
         <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G167" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H167">
         <v>0.14000000000000001</v>
@@ -6381,16 +6369,16 @@
         <v>244</v>
       </c>
       <c r="D168" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E168">
         <v>90</v>
       </c>
       <c r="F168" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G168" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H168">
         <v>1.1900000000000001E-2</v>
@@ -6410,22 +6398,22 @@
         <v>245</v>
       </c>
       <c r="D169" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E169">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F169" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G169" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H169">
         <v>1.78E-2</v>
       </c>
       <c r="I169">
-        <v>0.96120000000000005</v>
+        <v>0.99680000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6439,22 +6427,22 @@
         <v>246</v>
       </c>
       <c r="D170" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G170" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H170">
-        <v>0.2147</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I170">
-        <v>0.2147</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,16 +6456,16 @@
         <v>247</v>
       </c>
       <c r="D171" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E171">
         <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G171" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H171">
         <v>6.0000000000000001E-3</v>
@@ -6497,27 +6485,27 @@
         <v>248</v>
       </c>
       <c r="D172" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F172" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G172" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H172">
         <v>1.1000000000000001</v>
       </c>
       <c r="I172">
-        <v>3.31</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B173" t="s">
         <v>115</v>
@@ -6526,138 +6514,138 @@
         <v>249</v>
       </c>
       <c r="D173" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G173" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H173">
-        <v>1.1599999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="I173">
-        <v>3.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B174" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C174" t="s">
         <v>250</v>
       </c>
       <c r="D174" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G174" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H174">
-        <v>0.44</v>
+        <v>0.1603</v>
       </c>
       <c r="I174">
-        <v>0.44</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B175" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C175" t="s">
         <v>251</v>
       </c>
       <c r="D175" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>365</v>
-      </c>
-      <c r="G175" t="s">
-        <v>454</v>
+        <v>361</v>
+      </c>
+      <c r="G175">
+        <v>150</v>
       </c>
       <c r="H175">
-        <v>0.1603</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I175">
-        <v>0.3206</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B176" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C176" t="s">
         <v>252</v>
       </c>
       <c r="D176" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G176" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H176">
-        <v>9.8000000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I176">
-        <v>0.19600000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B177" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C177" t="s">
         <v>253</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>363</v>
-      </c>
-      <c r="G177">
-        <v>150</v>
+        <v>361</v>
+      </c>
+      <c r="G177" t="s">
+        <v>453</v>
       </c>
       <c r="H177">
-        <v>3.0000000000000001E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I177">
-        <v>3.0000000000000001E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,30 +6659,30 @@
         <v>254</v>
       </c>
       <c r="D178" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>363</v>
-      </c>
-      <c r="G178" t="s">
-        <v>456</v>
+        <v>361</v>
+      </c>
+      <c r="G178">
+        <v>160</v>
       </c>
       <c r="H178">
-        <v>3.705E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="I178">
-        <v>3.705E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C179" t="s">
         <v>255</v>
@@ -6703,19 +6691,19 @@
         <v>280</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
         <v>363</v>
       </c>
       <c r="G179" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H179">
-        <v>0.106</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="I179">
-        <v>0.106</v>
+        <v>5.6399999999999999E-2</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,22 +6717,22 @@
         <v>256</v>
       </c>
       <c r="D180" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G180">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="H180">
-        <v>4.8500000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I180">
-        <v>4.8500000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6758,22 +6746,22 @@
         <v>257</v>
       </c>
       <c r="D181" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E181">
         <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G181" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H181">
-        <v>2.8199999999999999E-2</v>
+        <v>0.63</v>
       </c>
       <c r="I181">
-        <v>5.6399999999999999E-2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6793,16 +6781,16 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="G182">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="H182">
-        <v>1.7000000000000001E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="I182">
-        <v>1.7000000000000001E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6816,22 +6804,22 @@
         <v>259</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G183" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H183">
-        <v>0.63</v>
+        <v>5.74E-2</v>
       </c>
       <c r="I183">
-        <v>1.26</v>
+        <v>5.74E-2</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6845,22 +6833,22 @@
         <v>260</v>
       </c>
       <c r="D184" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F184" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G184">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="H184">
-        <v>9.5899999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I184">
-        <v>9.5899999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6874,7 +6862,7 @@
         <v>261</v>
       </c>
       <c r="D185" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -6882,14 +6870,14 @@
       <c r="F185" t="s">
         <v>363</v>
       </c>
-      <c r="G185" t="s">
-        <v>460</v>
+      <c r="G185">
+        <v>330</v>
       </c>
       <c r="H185">
-        <v>5.74E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="I185">
-        <v>5.74E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6903,138 +6891,138 @@
         <v>262</v>
       </c>
       <c r="D186" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E186">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="G186">
         <v>330</v>
       </c>
       <c r="H186">
-        <v>3.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I186">
-        <v>5.3999999999999999E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C187" t="s">
         <v>263</v>
       </c>
       <c r="D187" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>365</v>
-      </c>
-      <c r="G187">
-        <v>330</v>
+        <v>363</v>
+      </c>
+      <c r="G187" t="s">
+        <v>457</v>
       </c>
       <c r="H187">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="I187">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8599999999999997E-2</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C188" t="s">
         <v>264</v>
       </c>
       <c r="D188" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>363</v>
-      </c>
-      <c r="G188">
-        <v>330</v>
+        <v>361</v>
+      </c>
+      <c r="G188" t="s">
+        <v>457</v>
       </c>
       <c r="H188">
-        <v>9.8000000000000004E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="I188">
-        <v>9.8000000000000004E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C189" t="s">
         <v>265</v>
       </c>
       <c r="D189" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="G189" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H189">
-        <v>4.8599999999999997E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I189">
-        <v>4.8599999999999997E-2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C190" t="s">
         <v>266</v>
       </c>
       <c r="D190" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>363</v>
-      </c>
-      <c r="G190" t="s">
-        <v>461</v>
+        <v>336</v>
+      </c>
+      <c r="G190">
+        <v>470</v>
       </c>
       <c r="H190">
-        <v>4.9599999999999998E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I190">
-        <v>4.9599999999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -7048,358 +7036,340 @@
         <v>267</v>
       </c>
       <c r="D191" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F191" t="s">
-        <v>338</v>
-      </c>
-      <c r="G191" t="s">
-        <v>462</v>
+        <v>361</v>
+      </c>
+      <c r="G191">
+        <v>470</v>
       </c>
       <c r="H191">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I191">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B192" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C192" t="s">
         <v>268</v>
       </c>
       <c r="D192" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E192">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F192" t="s">
-        <v>338</v>
-      </c>
-      <c r="G192">
-        <v>470</v>
+        <v>336</v>
+      </c>
+      <c r="G192" t="s">
+        <v>459</v>
       </c>
       <c r="H192">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I192">
-        <v>0.04</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C193" t="s">
         <v>269</v>
       </c>
       <c r="D193" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E193">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F193" t="s">
-        <v>363</v>
-      </c>
-      <c r="G193">
-        <v>470</v>
+        <v>361</v>
+      </c>
+      <c r="G193" t="s">
+        <v>459</v>
       </c>
       <c r="H193">
-        <v>1.2E-2</v>
+        <v>0.1115</v>
       </c>
       <c r="I193">
-        <v>0.12</v>
+        <v>0.5575</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B194" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C194" t="s">
         <v>270</v>
       </c>
       <c r="D194" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E194">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F194" t="s">
-        <v>338</v>
-      </c>
-      <c r="G194" t="s">
-        <v>463</v>
+        <v>361</v>
+      </c>
+      <c r="G194">
+        <v>500</v>
       </c>
       <c r="H194">
-        <v>0.14099999999999999</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="I194">
-        <v>2.4</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>61</v>
-      </c>
-      <c r="B195" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C195" t="s">
         <v>271</v>
       </c>
       <c r="D195" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="E195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G195" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H195">
-        <v>0.1115</v>
+        <v>0.1</v>
       </c>
       <c r="I195">
-        <v>0.5575</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>60</v>
-      </c>
-      <c r="B196" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C196" t="s">
         <v>272</v>
       </c>
       <c r="D196" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E196">
-        <v>6</v>
-      </c>
-      <c r="F196" t="s">
-        <v>363</v>
-      </c>
-      <c r="G196">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="F196">
+        <v>603</v>
+      </c>
+      <c r="G196" t="s">
+        <v>460</v>
       </c>
       <c r="H196">
-        <v>2.9499999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I196">
-        <v>0.17699999999999999</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="B197" t="s">
+        <v>114</v>
       </c>
       <c r="C197" t="s">
         <v>273</v>
       </c>
       <c r="D197" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197" t="s">
-        <v>338</v>
-      </c>
-      <c r="G197" t="s">
-        <v>464</v>
+        <v>363</v>
+      </c>
+      <c r="G197">
+        <v>680</v>
       </c>
       <c r="H197">
         <v>0.1</v>
       </c>
       <c r="I197">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B198" t="s">
+        <v>115</v>
       </c>
       <c r="C198" t="s">
         <v>274</v>
       </c>
       <c r="D198" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="E198">
-        <v>12</v>
-      </c>
-      <c r="F198">
-        <v>603</v>
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>336</v>
       </c>
       <c r="G198" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H198">
-        <v>2.5999999999999999E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="I198">
-        <v>0.312</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B199" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C199" t="s">
         <v>275</v>
       </c>
       <c r="D199" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>365</v>
-      </c>
-      <c r="G199">
-        <v>680</v>
+        <v>361</v>
+      </c>
+      <c r="G199" t="s">
+        <v>461</v>
       </c>
       <c r="H199">
-        <v>0.1</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="I199">
-        <v>0.2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>61</v>
-      </c>
-      <c r="B200" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C200" t="s">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="D200" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="E200">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="G200" t="s">
-        <v>465</v>
+        <v>68</v>
       </c>
       <c r="H200">
-        <v>4.3900000000000002E-2</v>
+        <v>6.44</v>
       </c>
       <c r="I200">
-        <v>0.2195</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>61</v>
-      </c>
-      <c r="B201" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C201" t="s">
-        <v>277</v>
+        <v>69</v>
       </c>
       <c r="D201" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G201" t="s">
-        <v>465</v>
+        <v>69</v>
       </c>
       <c r="H201">
-        <v>2.4799999999999999E-2</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="I201">
-        <v>2.4799999999999999E-2</v>
+        <v>0.80620000000000003</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>68</v>
-      </c>
-      <c r="C202" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="B202" t="s">
+        <v>115</v>
       </c>
       <c r="D202" t="s">
         <v>284</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G202" t="s">
-        <v>68</v>
-      </c>
-      <c r="H202">
-        <v>6.44</v>
-      </c>
-      <c r="I202">
-        <v>6.44</v>
+        <v>462</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>69</v>
-      </c>
-      <c r="C203" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="B203" t="s">
+        <v>115</v>
       </c>
       <c r="D203" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="G203" t="s">
-        <v>69</v>
-      </c>
-      <c r="H203">
-        <v>0.80620000000000003</v>
-      </c>
-      <c r="I203">
-        <v>0.80620000000000003</v>
+        <v>463</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -7410,44 +7380,44 @@
         <v>115</v>
       </c>
       <c r="D204" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F204" t="s">
         <v>363</v>
       </c>
       <c r="G204" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B205" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D205" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E205">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G205" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>61</v>
-      </c>
-      <c r="B206" t="s">
-        <v>115</v>
+        <v>70</v>
+      </c>
+      <c r="C206" t="s">
+        <v>70</v>
       </c>
       <c r="D206" t="s">
         <v>282</v>
@@ -7456,139 +7426,99 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G206" t="s">
-        <v>467</v>
+        <v>70</v>
+      </c>
+      <c r="H206">
+        <v>1.66</v>
+      </c>
+      <c r="I206">
+        <v>1.66</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B207" t="s">
-        <v>114</v>
+        <v>78</v>
+      </c>
+      <c r="C207" t="s">
+        <v>71</v>
       </c>
       <c r="D207" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="G207" t="s">
-        <v>467</v>
+        <v>375</v>
+      </c>
+      <c r="H207">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I207">
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="B208" t="s">
+        <v>78</v>
       </c>
       <c r="C208" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D208" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F208" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G208" t="s">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="H208">
-        <v>1.66</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I208">
-        <v>1.66</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>71</v>
-      </c>
-      <c r="B209" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C209" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D209" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F209" t="s">
+        <v>374</v>
+      </c>
+      <c r="G209" t="s">
         <v>375</v>
       </c>
-      <c r="G209" t="s">
-        <v>378</v>
-      </c>
       <c r="H209">
-        <v>16.600000000000001</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I209">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>72</v>
-      </c>
-      <c r="B210" t="s">
-        <v>78</v>
-      </c>
-      <c r="C210" t="s">
-        <v>72</v>
-      </c>
-      <c r="D210" t="s">
-        <v>283</v>
-      </c>
-      <c r="E210">
-        <v>4</v>
-      </c>
-      <c r="F210" t="s">
-        <v>376</v>
-      </c>
-      <c r="G210" t="s">
-        <v>378</v>
-      </c>
-      <c r="H210">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I210">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>73</v>
-      </c>
-      <c r="C211" t="s">
-        <v>73</v>
-      </c>
-      <c r="D211" t="s">
-        <v>284</v>
-      </c>
-      <c r="E211">
-        <v>3</v>
-      </c>
-      <c r="F211" t="s">
-        <v>377</v>
-      </c>
-      <c r="G211" t="s">
-        <v>378</v>
-      </c>
-      <c r="H211">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="I211">
         <v>12.69</v>
       </c>
     </row>

--- a/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
+++ b/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Motherboard Assembly\Project Outputs for Motherboard Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{793D7967-6A92-4526-A963-B50CA1E482ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C93D04A-4D93-4092-8075-6FDF0FB0C46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="528">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +54,12 @@
     <t>AT25SL641_113</t>
   </si>
   <si>
+    <t>B2B-EH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>B3B-EH-A(LF)(SN)</t>
+  </si>
+  <si>
     <t>B4B-XH-A (LF)(SN)</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
     <t>DRV8825PWP</t>
   </si>
   <si>
+    <t>ECS-200-20-4X</t>
+  </si>
+  <si>
     <t>EMPCB.SMAFSTJ.B.HT</t>
   </si>
   <si>
@@ -96,9 +105,15 @@
     <t>FTSH-105-01-L-DV-K</t>
   </si>
   <si>
+    <t>Fuse 1</t>
+  </si>
+  <si>
     <t>Header 2</t>
   </si>
   <si>
+    <t>Header 3</t>
+  </si>
+  <si>
     <t>Header 5</t>
   </si>
   <si>
@@ -117,6 +132,9 @@
     <t>LM2736XMK/NOPB</t>
   </si>
   <si>
+    <t>LMR62014XMF/NOPD</t>
+  </si>
+  <si>
     <t>LMS7002M</t>
   </si>
   <si>
@@ -147,9 +165,24 @@
     <t>NRF52832-QFAA-R</t>
   </si>
   <si>
+    <t>OPA336NA/250</t>
+  </si>
+  <si>
+    <t>P9221</t>
+  </si>
+  <si>
+    <t>P9242-RNDGI8</t>
+  </si>
+  <si>
+    <t>Photo Sen</t>
+  </si>
+  <si>
     <t>PIC16F15375-I/MV</t>
   </si>
   <si>
+    <t>PIC18LF45K50-I/PT</t>
+  </si>
+  <si>
     <t>PMOS-2</t>
   </si>
   <si>
@@ -168,22 +201,22 @@
     <t>SLVU2.8-4.TBT</t>
   </si>
   <si>
+    <t>SSCMNNN030PA2A3</t>
+  </si>
+  <si>
     <t>TC1-1-13MA+</t>
   </si>
   <si>
     <t>TC33X-2-103E</t>
   </si>
   <si>
-    <t>Thermistor Connector</t>
-  </si>
-  <si>
     <t>TMP235A2DBZR</t>
   </si>
   <si>
     <t>TPS7A9101DSKT</t>
   </si>
   <si>
-    <t>TPS55340-Q1</t>
+    <t>TPS55340QRTERQ1</t>
   </si>
   <si>
     <t>TSX-3225 25.0000MF20P-C0</t>
@@ -291,6 +324,9 @@
     <t>Stepper Motor Controller IC, 8.2 to 45 V, -40 to 85 degC, 28-Pin HTSSOP (PWP), Green (RoHS &amp; no Sb/Br), Tube</t>
   </si>
   <si>
+    <t>CRYSTAL 20.000MHZ 20PF 49US</t>
+  </si>
+  <si>
     <t>CONN SMA JACK STR 50OHM EDGE MNT</t>
   </si>
   <si>
@@ -300,15 +336,24 @@
     <t>Male Header, Pitch 1.27 mm, 2 x 5 Position, Height 6.25 mm</t>
   </si>
   <si>
+    <t>Fuse</t>
+  </si>
+  <si>
     <t>Header, 2-Pin</t>
   </si>
   <si>
+    <t>Header, 3-Pin</t>
+  </si>
+  <si>
     <t>Header, 5-Pin</t>
   </si>
   <si>
     <t>Telecom Transformer 1:1/1:1, -40 to 85 degC, 16-Pin SMT, RoHS, Tube</t>
   </si>
   <si>
+    <t>UVC LED</t>
+  </si>
+  <si>
     <t>Typical RED, GREEN, YELLOW, AMBER GaAs LED</t>
   </si>
   <si>
@@ -339,6 +384,15 @@
     <t>Multiprotocol Bluetooth Smart, ANT/ANT+ and Proprietary System-on-Chip, 2.4 GHz, 256 KB FLASH, 1.7 to 3.6 V, -40 to 85 degC, 48-Pin QFN, RoHS, Tape and Reel</t>
   </si>
   <si>
+    <t>Single-Supply, MicroPower CMOS Operational Amplifier MicroAmplifier(TM) Series, 2.3 to 5.5 V, -55 to 125 degC, 5-pin SOT23 (DBV5), Green (RoHS &amp; no Sb/Br)</t>
+  </si>
+  <si>
+    <t>Photosensitive Diode</t>
+  </si>
+  <si>
+    <t>Low-Power, High-Performance Microcontroller with XLP Technology, 48 MHz, 36 I/O, -40 to 85 degC, 44-pin TQFP (PT44), Tray</t>
+  </si>
+  <si>
     <t>P-Channel Power MOSFET</t>
   </si>
   <si>
@@ -378,6 +432,9 @@
     <t>Clock Fanout Buffer _Distribution_ IC 1:2 150MHz 6-UFDFN Exposed Pad</t>
   </si>
   <si>
+    <t>SMD-Shielded Power Inductor WE-PD, L = 10.0 µH</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -390,9 +447,6 @@
     <t>Thermistor</t>
   </si>
   <si>
-    <t>SMD-Shielded Power Inductor WE-PD, L = 10.0 µH</t>
-  </si>
-  <si>
     <t>Resistor 1%</t>
   </si>
   <si>
@@ -402,6 +456,9 @@
     <t>AT25SL641-MHE-T</t>
   </si>
   <si>
+    <t>B2B-EH-A(LF)(SN)</t>
+  </si>
+  <si>
     <t>B4B-XH-A(LF)(SN)</t>
   </si>
   <si>
@@ -426,9 +483,18 @@
     <t>FC-13532.7680KA-AC</t>
   </si>
   <si>
+    <t>3557-2</t>
+  </si>
+  <si>
     <t>1SH-A-02-TS-SMT</t>
   </si>
   <si>
+    <t>2-1445096-2</t>
+  </si>
+  <si>
+    <t>2-1445050-3</t>
+  </si>
+  <si>
     <t>150060RS75000</t>
   </si>
   <si>
@@ -438,24 +504,27 @@
     <t>MP5087GG-Z</t>
   </si>
   <si>
+    <t>SIS412DN-T1-GE3</t>
+  </si>
+  <si>
     <t>DMG7430LFG-7</t>
   </si>
   <si>
     <t>MMBT3904-TP</t>
   </si>
   <si>
+    <t>P9221-RAHGI8</t>
+  </si>
+  <si>
+    <t>AONR21321</t>
+  </si>
+  <si>
     <t>ZXTP25020CFFTA</t>
   </si>
   <si>
     <t>SKY65111-348LF</t>
   </si>
   <si>
-    <t>B2B-EH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t>TPS55340QRTETQ1</t>
-  </si>
-  <si>
     <t>TSX-322525.0000MF20P-C0</t>
   </si>
   <si>
@@ -483,12 +552,12 @@
     <t>SDR03EZPJ102</t>
   </si>
   <si>
+    <t>MCS04020C1004FE000</t>
+  </si>
+  <si>
     <t>RC1206FR-071ML</t>
   </si>
   <si>
-    <t>MCS04020C1004FE000</t>
-  </si>
-  <si>
     <t>GRM1885C1H102JA01D</t>
   </si>
   <si>
@@ -504,15 +573,15 @@
     <t>CC0402CRNPO9BN1R0</t>
   </si>
   <si>
+    <t>GRM155R61E105KA12D</t>
+  </si>
+  <si>
     <t>CC0201KRX5R5BB105</t>
   </si>
   <si>
     <t>CL10B105MO8NNWC</t>
   </si>
   <si>
-    <t>GRM155R61E105KA12D</t>
-  </si>
-  <si>
     <t>ERJ-PB6B1131V</t>
   </si>
   <si>
@@ -582,6 +651,9 @@
     <t>CL21A475KAQNNNG</t>
   </si>
   <si>
+    <t>LQM18PN4R7MFRL</t>
+  </si>
+  <si>
     <t>RT0402BRD074K87L</t>
   </si>
   <si>
@@ -612,6 +684,9 @@
     <t>C0603C682K3GACTU</t>
   </si>
   <si>
+    <t>IHLP2525CZER6R8MA1</t>
+  </si>
+  <si>
     <t>CRGCQ0402F8K2</t>
   </si>
   <si>
@@ -663,6 +738,9 @@
     <t>CC0402JRNPO9BN120</t>
   </si>
   <si>
+    <t>SRR1260-120M</t>
+  </si>
+  <si>
     <t>RMCF0603FT13K7</t>
   </si>
   <si>
@@ -690,6 +768,9 @@
     <t>ERJ-6CWJR020V</t>
   </si>
   <si>
+    <t>CC0402JRNPO9BN200</t>
+  </si>
+  <si>
     <t>RMCF0402FT21K0</t>
   </si>
   <si>
@@ -735,6 +816,9 @@
     <t>RC0402FR-0749R9L</t>
   </si>
   <si>
+    <t>RR0816P-513-D</t>
+  </si>
+  <si>
     <t>GCM1885C2A560JA16D</t>
   </si>
   <si>
@@ -768,6 +852,9 @@
     <t>73L3R10J</t>
   </si>
   <si>
+    <t>CRCW0603100MJPEAHR</t>
+  </si>
+  <si>
     <t>CL10B104KA8NNNC</t>
   </si>
   <si>
@@ -849,6 +936,9 @@
     <t>ERJ-2RKF4990X</t>
   </si>
   <si>
+    <t>C0805C511J5HACAUTO</t>
+  </si>
+  <si>
     <t>MPZ1608D300BTA00</t>
   </si>
   <si>
@@ -873,13 +963,19 @@
     <t>Airbrake Motor Controller.PcbDoc</t>
   </si>
   <si>
+    <t>Airbrake Motor Controller.PcbDoc, LEDBoard.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
+  </si>
+  <si>
+    <t>Photo-Diode Board.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
+  </si>
+  <si>
     <t>ACDC.PcbDoc</t>
   </si>
   <si>
     <t>TransmitterBoard.PcbDoc</t>
   </si>
   <si>
-    <t>M2RB.PcbDoc, ACDC.PcbDoc, Mother Board.PcbDoc, PMS.PcbDoc</t>
+    <t>M2RB.PcbDoc, ACDC.PcbDoc, Mother Board.PcbDoc, PMS.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
   </si>
   <si>
     <t>PMS.PcbDoc</t>
@@ -888,49 +984,70 @@
     <t>TransmitterBoard.PcbDoc, PMS.PcbDoc</t>
   </si>
   <si>
+    <t>Airbrake Motor Controller.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
+  </si>
+  <si>
+    <t>Biological Payload Data Consolidator.PcbDoc</t>
+  </si>
+  <si>
     <t>Airbrake Motor Controller.PcbDoc, M2RB.PcbDoc</t>
   </si>
   <si>
     <t>M2RB.PcbDoc, ACDC.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
   </si>
   <si>
+    <t>Mother Board.PcbDoc, Biological Payload Data Consolidator.PcbDoc, PMS.PcbDoc</t>
+  </si>
+  <si>
+    <t>Debug Board.PcbDoc, M2RB.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc</t>
+  </si>
+  <si>
     <t>Mother Board.PcbDoc</t>
   </si>
   <si>
-    <t>Debug Board.PcbDoc, M2RB.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc</t>
-  </si>
-  <si>
     <t>ACDC.PcbDoc, M2RB.PcbDoc</t>
   </si>
   <si>
     <t>M2RB.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc, Airbrake Motor Controller.PcbDoc, TransmitterBoard.PcbDoc</t>
   </si>
   <si>
+    <t>LEDBoard.PcbDoc</t>
+  </si>
+  <si>
     <t>Debug Board.PcbDoc</t>
   </si>
   <si>
-    <t>M2RB.PcbDoc, Mother Board.PcbDoc, Airbrake Motor Controller.PcbDoc, PMS.PcbDoc</t>
+    <t>M2RB.PcbDoc, Mother Board.PcbDoc, Airbrake Motor Controller.PcbDoc, PMS.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
   </si>
   <si>
     <t>Mother Board.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
   </si>
   <si>
+    <t>Photo-Diode Board.PcbDoc</t>
+  </si>
+  <si>
     <t>M2RB.PcbDoc, ACDC.PcbDoc</t>
   </si>
   <si>
-    <t>M2RB.PcbDoc, Mother Board.PcbDoc, Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc</t>
+    <t>M2RB.PcbDoc, Mother Board.PcbDoc, Airbrake Motor Controller.PcbDoc, Biological Payload Data Consolidator.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc</t>
   </si>
   <si>
     <t>M2RB.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
   </si>
   <si>
+    <t>Biological Payload Data Consolidator.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
+  </si>
+  <si>
     <t>M2RB.PcbDoc, Mother Board.PcbDoc</t>
   </si>
   <si>
-    <t>Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc, M2RB.PcbDoc</t>
-  </si>
-  <si>
-    <t>M2RB.PcbDoc, ACDC.PcbDoc, Mother Board.PcbDoc, PMS.PcbDoc, TransmitterBoard.PcbDoc</t>
+    <t>Airbrake Motor Controller.PcbDoc, Biological Payload Data Consolidator.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc, M2RB.PcbDoc</t>
+  </si>
+  <si>
+    <t>M2RB.PcbDoc, Airbrake Motor Controller.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
+  </si>
+  <si>
+    <t>M2RB.PcbDoc, ACDC.PcbDoc, Mother Board.PcbDoc, PMS.PcbDoc, TransmitterBoard.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
   </si>
   <si>
     <t>Airbrake Motor Controller.PcbDoc, TransmitterBoard.PcbDoc, ACDC.PcbDoc, M2RB.PcbDoc</t>
@@ -939,49 +1056,58 @@
     <t>PMS.PcbDoc, M2RB.PcbDoc</t>
   </si>
   <si>
+    <t>Biological Payload Data Consolidator.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc</t>
+  </si>
+  <si>
+    <t>ACDC.PcbDoc, Biological Payload Data Consolidator.PcbDoc, Airbrake Motor Controller.PcbDoc, M2RB.PcbDoc, PMS.PcbDoc</t>
+  </si>
+  <si>
+    <t>ACDC.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
+  </si>
+  <si>
+    <t>M2RB.PcbDoc, PMS.PcbDoc</t>
+  </si>
+  <si>
+    <t>TransmitterBoard.PcbDoc, Mother Board.PcbDoc</t>
+  </si>
+  <si>
+    <t>PMS.PcbDoc, Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, Biological Payload Data Consolidator.PcbDoc, M2RB.PcbDoc</t>
+  </si>
+  <si>
+    <t>ACDC.PcbDoc, M2RB.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
+  </si>
+  <si>
+    <t>Biological Payload Data Consolidator.PcbDoc, ACDC.PcbDoc, Mother Board.PcbDoc, PMS.PcbDoc, TransmitterBoard.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
+  </si>
+  <si>
+    <t>Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, M2RB.PcbDoc</t>
+  </si>
+  <si>
+    <t>PMS.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
+  </si>
+  <si>
     <t>ACDC.PcbDoc, PMS.PcbDoc</t>
   </si>
   <si>
-    <t>ACDC.PcbDoc, Airbrake Motor Controller.PcbDoc, M2RB.PcbDoc, PMS.PcbDoc</t>
-  </si>
-  <si>
-    <t>ACDC.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
-  </si>
-  <si>
-    <t>M2RB.PcbDoc, PMS.PcbDoc</t>
-  </si>
-  <si>
-    <t>TransmitterBoard.PcbDoc, Mother Board.PcbDoc</t>
-  </si>
-  <si>
-    <t>PMS.PcbDoc, Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, M2RB.PcbDoc</t>
-  </si>
-  <si>
-    <t>ACDC.PcbDoc, M2RB.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
-  </si>
-  <si>
-    <t>ACDC.PcbDoc, Mother Board.PcbDoc, PMS.PcbDoc, TransmitterBoard.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
-  </si>
-  <si>
-    <t>Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, M2RB.PcbDoc</t>
-  </si>
-  <si>
-    <t>PMS.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
-  </si>
-  <si>
-    <t>Mother Board.PcbDoc, M2RB.PcbDoc, Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc, TransmitterBoard.PcbDoc</t>
+    <t>Mother Board.PcbDoc, M2RB.PcbDoc, Biological Payload Data Consolidator.PcbDoc, Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc, TransmitterBoard.PcbDoc</t>
   </si>
   <si>
     <t>ACDC.PcbDoc, PMS.PcbDoc, M2RB.PcbDoc</t>
   </si>
   <si>
+    <t>Biological Payload Data Consolidator.PcbDoc, M2RB.PcbDoc, Photo-Diode Board.PcbDoc</t>
+  </si>
+  <si>
+    <t>Biological Payload Data Consolidator.PcbDoc, Mother Board.PcbDoc</t>
+  </si>
+  <si>
     <t>M2RB.PcbDoc, ACDC.PcbDoc, PMS.PcbDoc, Mother Board.PcbDoc</t>
   </si>
   <si>
-    <t>Airbrake Motor Controller.PcbDoc, TransmitterBoard.PcbDoc</t>
-  </si>
-  <si>
-    <t>M2RB.PcbDoc, Mother Board.PcbDoc, TransmitterBoard.PcbDoc, Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc</t>
+    <t>LEDBoard.PcbDoc, Airbrake Motor Controller.PcbDoc, TransmitterBoard.PcbDoc</t>
+  </si>
+  <si>
+    <t>M2RB.PcbDoc, Mother Board.PcbDoc, TransmitterBoard.PcbDoc, Airbrake Motor Controller.PcbDoc, Biological Payload Data Consolidator.PcbDoc, ACDC.PcbDoc</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -999,6 +1125,12 @@
     <t>FP-SOT25-IPC_B</t>
   </si>
   <si>
+    <t>CONN_B2B-EH-A (LF)(SN)_JST</t>
+  </si>
+  <si>
+    <t>CONN3_B3B-EH-A(LF)(SN)_JST</t>
+  </si>
+  <si>
     <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
   </si>
   <si>
@@ -1023,6 +1155,9 @@
     <t>PWP0028C_L</t>
   </si>
   <si>
+    <t>ECS-4X-3IL</t>
+  </si>
+  <si>
     <t>FP-EMPCB_SMAFSTJ_B_HT-MFG</t>
   </si>
   <si>
@@ -1035,6 +1170,12 @@
     <t>SMTC-FTSH-105-01-L-DV-K_V</t>
   </si>
   <si>
+    <t>CONN_3557-2_KEY</t>
+  </si>
+  <si>
+    <t>conn3_2-1445050-3_TEC</t>
+  </si>
+  <si>
     <t>HDR1X5</t>
   </si>
   <si>
@@ -1053,6 +1194,9 @@
     <t>DDC0006A_L</t>
   </si>
   <si>
+    <t>SOT95P280X145-5N</t>
+  </si>
+  <si>
     <t>LM-QFN-261_V</t>
   </si>
   <si>
@@ -1068,10 +1212,28 @@
     <t>SOT23_M</t>
   </si>
   <si>
+    <t>POWERPAK_1212-8</t>
+  </si>
+  <si>
     <t>NRSC-QF-48_M</t>
   </si>
   <si>
-    <t>TO-220AB</t>
+    <t>DBV0005A_M</t>
+  </si>
+  <si>
+    <t>BGA52C40P6X9_264X394X65</t>
+  </si>
+  <si>
+    <t>QFN40P600X600X100-49N</t>
+  </si>
+  <si>
+    <t>PIN2</t>
+  </si>
+  <si>
+    <t>MCHP-TQFP-PT44_L</t>
+  </si>
+  <si>
+    <t>TRANS_AONR21321</t>
   </si>
   <si>
     <t>SOT-23B_N</t>
@@ -1083,18 +1245,15 @@
     <t>SEMT-SO-8_V</t>
   </si>
   <si>
+    <t>SSCMNN_HNW-M</t>
+  </si>
+  <si>
     <t>BOUR-TC33X-2_V</t>
   </si>
   <si>
-    <t>CONN_B2B-EH-A (LF)(SN)_JST</t>
-  </si>
-  <si>
     <t>FP-DBZ0003A-MFG</t>
   </si>
   <si>
-    <t>TPS55340QRTERQ1</t>
-  </si>
-  <si>
     <t>FTGB196 Package</t>
   </si>
   <si>
@@ -1119,6 +1278,9 @@
     <t>SON40P130X200X60-7N</t>
   </si>
   <si>
+    <t>WE-PD-L</t>
+  </si>
+  <si>
     <t>0402-A</t>
   </si>
   <si>
@@ -1131,7 +1293,7 @@
     <t>WE-TPC-4818-M</t>
   </si>
   <si>
-    <t>WE-PD-L</t>
+    <t>IND_BOURNS_SRR1260</t>
   </si>
   <si>
     <t>C1210</t>
@@ -1164,6 +1326,9 @@
     <t>Value</t>
   </si>
   <si>
+    <t>[NoParam], 10uH</t>
+  </si>
+  <si>
     <t>0.5pF</t>
   </si>
   <si>
@@ -1275,6 +1440,12 @@
     <t>6.8nF</t>
   </si>
   <si>
+    <t>6.8uH</t>
+  </si>
+  <si>
+    <t>7.5uH</t>
+  </si>
+  <si>
     <t>8.2k</t>
   </si>
   <si>
@@ -1305,6 +1476,9 @@
     <t>12pF</t>
   </si>
   <si>
+    <t>12uH</t>
+  </si>
+  <si>
     <t>13.7k</t>
   </si>
   <si>
@@ -1329,6 +1503,9 @@
     <t>20m</t>
   </si>
   <si>
+    <t>20pF</t>
+  </si>
+  <si>
     <t>21k</t>
   </si>
   <si>
@@ -1362,6 +1539,9 @@
     <t>47uF</t>
   </si>
   <si>
+    <t>51k</t>
+  </si>
+  <si>
     <t>56pF</t>
   </si>
   <si>
@@ -1380,6 +1560,9 @@
     <t>100m</t>
   </si>
   <si>
+    <t>100M</t>
+  </si>
+  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -1414,6 +1597,9 @@
   </si>
   <si>
     <t>470nF</t>
+  </si>
+  <si>
+    <t>510pF</t>
   </si>
   <si>
     <t>600R@100MHz</t>
@@ -1807,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
@@ -1820,28 +2006,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1852,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1872,25 +2058,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="H3">
-        <v>0.84284999999999999</v>
+        <v>0.83889999999999998</v>
       </c>
       <c r="I3">
-        <v>0.84284999999999999</v>
+        <v>0.83889999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1898,19 +2084,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="H4">
         <v>0.46550000000000002</v>
@@ -1924,19 +2110,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H5">
         <v>0.23</v>
@@ -1950,10 +2136,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1973,25 +2159,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="H7">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I7">
-        <v>0.21</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1999,25 +2185,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="H8">
-        <v>10.06</v>
+        <v>0.19</v>
       </c>
       <c r="I8">
-        <v>20.12</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2025,25 +2211,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="H9">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
       <c r="I9">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,25 +2237,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="H10">
-        <v>0.2301</v>
+        <v>10.06</v>
       </c>
       <c r="I10">
-        <v>0.9204</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,25 +2263,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>425</v>
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>367</v>
       </c>
       <c r="H11">
-        <v>5.0999999999999997E-2</v>
+        <v>0.82</v>
       </c>
       <c r="I11">
-        <v>0.10199999999999999</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2103,25 +2289,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="H12">
-        <v>0.08</v>
+        <v>0.2301</v>
       </c>
       <c r="I12">
-        <v>0.24</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,25 +2315,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>326</v>
+      <c r="F13">
+        <v>425</v>
       </c>
       <c r="H13">
-        <v>0.42409999999999998</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I13">
-        <v>0.84819999999999995</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,25 +2341,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="H14">
-        <v>1.52</v>
+        <v>0.08</v>
       </c>
       <c r="I14">
-        <v>1.52</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2181,25 +2367,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="H15">
-        <v>5.09</v>
+        <v>0.42409999999999998</v>
       </c>
       <c r="I15">
-        <v>5.09</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,25 +2393,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="H16">
-        <v>3.07</v>
+        <v>1.52</v>
       </c>
       <c r="I16">
-        <v>9.2100000000000009</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2233,48 +2419,51 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="H17">
-        <v>0.126</v>
+        <v>5.09</v>
       </c>
       <c r="I17">
-        <v>0.126</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>373</v>
       </c>
       <c r="H18">
-        <v>0.39229999999999998</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="I18">
-        <v>0.39229999999999998</v>
+        <v>0.63439999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2282,19 +2471,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>374</v>
+      </c>
+      <c r="H19">
+        <v>3.07</v>
+      </c>
+      <c r="I19">
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2302,51 +2497,48 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="H20">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="I20">
-        <v>10.8</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>0.20810000000000001</v>
+        <v>0.39229999999999998</v>
       </c>
       <c r="I21">
-        <v>0.41620000000000001</v>
+        <v>0.39229999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2354,102 +2546,123 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
+        <v>377</v>
+      </c>
+      <c r="H23">
+        <v>2.7</v>
+      </c>
+      <c r="I23">
+        <v>10.8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="H24">
-        <v>9.11</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="I24">
-        <v>36.44</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="H25">
-        <v>4.08</v>
+        <v>0.20810000000000001</v>
       </c>
       <c r="I25">
-        <v>8.15</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="H26">
-        <v>0.14000000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="I26">
-        <v>3.64</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2457,16 +2670,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>379</v>
+      </c>
+      <c r="H27">
+        <v>0.9</v>
+      </c>
+      <c r="I27">
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2474,1977 +2696,1872 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
-      </c>
-      <c r="H28">
-        <v>1.57</v>
-      </c>
-      <c r="I28">
-        <v>1.57</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>339</v>
-      </c>
-      <c r="H29">
-        <v>109.98</v>
-      </c>
-      <c r="I29">
-        <v>109.98</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="H30">
-        <v>2.78</v>
+        <v>9.11</v>
       </c>
       <c r="I30">
-        <v>11.13</v>
+        <v>36.44</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>382</v>
       </c>
       <c r="H31">
-        <v>14.16</v>
+        <v>4.08</v>
       </c>
       <c r="I31">
-        <v>14.16</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="H32">
-        <v>2.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I32">
-        <v>2.1</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
-      </c>
-      <c r="H33">
-        <v>1.78</v>
-      </c>
-      <c r="I33">
-        <v>7.12</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
-      </c>
-      <c r="H34">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I34">
-        <v>6.9000000000000006E-2</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>385</v>
       </c>
       <c r="H35">
-        <v>1.0900000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="I35">
-        <v>14.17</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36">
-        <v>0.30070000000000002</v>
-      </c>
-      <c r="I36">
-        <v>1.2</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="H37">
-        <v>9.8000000000000004E-2</v>
+        <v>109.98</v>
       </c>
       <c r="I37">
-        <v>0.19600000000000001</v>
+        <v>109.98</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="H38">
-        <v>5.46</v>
+        <v>2.78</v>
       </c>
       <c r="I38">
-        <v>10.92</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1.1200000000000001</v>
+        <v>14.16</v>
       </c>
       <c r="I39">
-        <v>1.1200000000000001</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>389</v>
+      </c>
+      <c r="H40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I40">
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="H41">
-        <v>0.42499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="I41">
-        <v>4.25</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="H42">
-        <v>0.13</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I42">
-        <v>0.26</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="H43">
-        <v>2.04</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I43">
-        <v>4.08</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="H44">
-        <v>1.31</v>
+        <v>0.47970000000000002</v>
       </c>
       <c r="I44">
-        <v>1.31</v>
+        <v>0.95940000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>157</v>
       </c>
       <c r="H45">
-        <v>1.25</v>
+        <v>0.30070000000000002</v>
       </c>
       <c r="I45">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="H46">
-        <v>2.37</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I46">
-        <v>4.74</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="H47">
-        <v>9.0999999999999998E-2</v>
+        <v>5.46</v>
       </c>
       <c r="I47">
-        <v>9.0999999999999998E-2</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="H48">
-        <v>0.14000000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="I48">
-        <v>0.14000000000000001</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="H49">
-        <v>0.75839999999999996</v>
+        <v>7.67</v>
       </c>
       <c r="I49">
-        <v>3.79</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>396</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>7.31</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
-      </c>
-      <c r="H51">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I51">
-        <v>4.5999999999999996</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H52">
-        <v>0.33</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I52">
-        <v>0.33</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="H53">
-        <v>28.91</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I53">
-        <v>28.91</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>399</v>
       </c>
       <c r="H54">
-        <v>0.44</v>
+        <v>0.39879999999999999</v>
       </c>
       <c r="I54">
-        <v>0.88</v>
+        <v>0.39879999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>354</v>
+        <v>400</v>
+      </c>
+      <c r="H55">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I55">
+        <v>4.25</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="H56">
-        <v>0.81299999999999994</v>
+        <v>0.13</v>
       </c>
       <c r="I56">
-        <v>0.81299999999999994</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
+        <v>52</v>
+      </c>
+      <c r="H57">
+        <v>2.04</v>
+      </c>
+      <c r="I57">
+        <v>4.08</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>357</v>
+        <v>53</v>
       </c>
       <c r="H58">
-        <v>0.19</v>
+        <v>1.3</v>
       </c>
       <c r="I58">
-        <v>0.19</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="H59">
-        <v>3.01</v>
+        <v>1.25</v>
       </c>
       <c r="I59">
-        <v>3.01</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="H60">
-        <v>0.19800000000000001</v>
+        <v>26.98</v>
       </c>
       <c r="I60">
-        <v>0.19800000000000001</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="H61">
-        <v>0.69240000000000002</v>
+        <v>2.37</v>
       </c>
       <c r="I61">
-        <v>0.69240000000000002</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>336</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="H62">
-        <v>4.0000000000000001E-3</v>
+        <v>0.24079999999999999</v>
       </c>
       <c r="I62">
-        <v>8.0000000000000002E-3</v>
+        <v>0.24079999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>361</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="H63">
-        <v>2E-3</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="I63">
-        <v>1.2E-2</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>361</v>
-      </c>
-      <c r="G64" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="H64">
-        <v>4.0000000000000001E-3</v>
+        <v>1.99</v>
       </c>
       <c r="I64">
-        <v>4.0000000000000001E-3</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>361</v>
-      </c>
-      <c r="G65" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="H65">
-        <v>3.2300000000000002E-2</v>
+        <v>3.96</v>
       </c>
       <c r="I65">
-        <v>9.69E-2</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>361</v>
-      </c>
-      <c r="G66" t="s">
-        <v>378</v>
+        <v>61</v>
       </c>
       <c r="H66">
-        <v>4.0000000000000001E-3</v>
+        <v>0.33</v>
       </c>
       <c r="I66">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>336</v>
-      </c>
-      <c r="G67" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="H67">
-        <v>0.1</v>
+        <v>28.91</v>
       </c>
       <c r="I67">
-        <v>0.3</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>337</v>
-      </c>
-      <c r="G68" t="s">
-        <v>379</v>
+        <v>63</v>
+      </c>
+      <c r="H68">
+        <v>0.44</v>
+      </c>
+      <c r="I68">
+        <v>0.88</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>362</v>
-      </c>
-      <c r="G69" t="s">
-        <v>380</v>
-      </c>
-      <c r="H69">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="I69">
-        <v>0.19600000000000001</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>361</v>
-      </c>
-      <c r="G70" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="H70">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="I70">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95330000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>336</v>
-      </c>
-      <c r="G71" t="s">
-        <v>381</v>
-      </c>
-      <c r="H71">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I71">
-        <v>5.6000000000000001E-2</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>361</v>
-      </c>
-      <c r="G72" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="H72">
-        <v>5.0000000000000001E-3</v>
+        <v>0.19</v>
       </c>
       <c r="I72">
-        <v>2.5000000000000001E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E73">
-        <v>9</v>
-      </c>
-      <c r="F73">
-        <v>603</v>
-      </c>
-      <c r="G73" t="s">
-        <v>381</v>
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>411</v>
       </c>
       <c r="H73">
-        <v>1.0699999999999999E-2</v>
+        <v>3.01</v>
       </c>
       <c r="I73">
-        <v>0.107</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>361</v>
-      </c>
-      <c r="G74" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="H74">
-        <v>0.1</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="I74">
-        <v>0.1</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>361</v>
-      </c>
-      <c r="G75" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="H75">
-        <v>2.4799999999999999E-2</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="I75">
-        <v>2.4799999999999999E-2</v>
+        <v>0.69240000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>61</v>
+      <c r="A76">
+        <v>74477110</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="C76">
+        <v>74477110</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="E76">
-        <v>49</v>
-      </c>
-      <c r="F76">
-        <v>603</v>
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>414</v>
       </c>
       <c r="G76" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="H76">
-        <v>2.76E-2</v>
+        <v>2.12</v>
       </c>
       <c r="I76">
-        <v>1.38</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="E77">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>336</v>
-      </c>
-      <c r="G77" t="s">
-        <v>384</v>
+        <v>383</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I77">
         <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I77">
-        <v>0.104</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>361</v>
-      </c>
-      <c r="G78" t="s">
-        <v>384</v>
+        <v>415</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>6.6000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="I78">
-        <v>0.33</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G79" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="H79">
-        <v>0.33</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I79">
-        <v>0.33</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D80" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G80" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="H80">
-        <v>0.1</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="I80">
-        <v>0.1</v>
+        <v>9.69E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G81" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="H81">
-        <v>6.2399999999999997E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I81">
-        <v>6.2399999999999997E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G82" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="H82">
-        <v>2.18E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I82">
-        <v>4.36E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>363</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="I83">
-        <v>5.0700000000000002E-2</v>
+        <v>384</v>
+      </c>
+      <c r="G83" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G84" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="H84">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1769</v>
       </c>
       <c r="I84">
-        <v>4.0000000000000001E-3</v>
+        <v>0.88449999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="G85" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="H85">
-        <v>1.2E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I85">
-        <v>0.12</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G86" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="H86">
-        <v>5.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I86">
-        <v>5.0000000000000001E-3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G87" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="H87">
-        <v>0.10199999999999999</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I87">
-        <v>0.30599999999999999</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>361</v>
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>603</v>
       </c>
       <c r="G88" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="H88">
-        <v>0.35</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="I88">
-        <v>0.35</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G89" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="H89">
-        <v>2.5999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I89">
-        <v>2.5999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D90" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G90" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="H90">
-        <v>3.0000000000000001E-3</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="I90">
-        <v>8.9999999999999993E-3</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>363</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
+        <v>415</v>
+      </c>
+      <c r="G91" t="s">
+        <v>439</v>
       </c>
       <c r="H91">
-        <v>0.1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I91">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>361</v>
+        <v>49</v>
+      </c>
+      <c r="F92">
+        <v>603</v>
       </c>
       <c r="G92" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="H92">
-        <v>3.0000000000000001E-3</v>
+        <v>2.76E-2</v>
       </c>
       <c r="I92">
-        <v>3.0000000000000001E-3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G93" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="H93">
-        <v>5.6599999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I93">
-        <v>0.16980000000000001</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="G94" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="H94">
-        <v>1.2E-2</v>
+        <v>0.33</v>
       </c>
       <c r="I94">
-        <v>3.5999999999999997E-2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G95" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="H95">
-        <v>2.1100000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I95">
-        <v>2.1100000000000001E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G96" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="H96">
-        <v>9.5899999999999999E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="I96">
-        <v>9.5899999999999999E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="E97">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G97" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="H97">
-        <v>4.0000000000000001E-3</v>
+        <v>2.18E-2</v>
       </c>
       <c r="I97">
-        <v>7.1999999999999995E-2</v>
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>361</v>
-      </c>
-      <c r="G98" t="s">
-        <v>400</v>
+        <v>417</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="I98">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0700000000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D99" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G99" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="H99">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I99">
-        <v>3.5999999999999997E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100">
-        <v>885012208079</v>
+        <v>133</v>
+      </c>
+      <c r="C100" t="s">
+        <v>188</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="G100" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="H100">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I100">
         <v>0.12</v>
-      </c>
-      <c r="I100">
-        <v>0.24</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G101" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="H101">
         <v>5.0000000000000001E-3</v>
@@ -4455,3016 +4572,3076 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="E102">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G102" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="H102">
-        <v>3.9399999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="I102">
-        <v>0.98499999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>744042004</v>
+      <c r="A103" t="s">
+        <v>72</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103">
-        <v>744042004</v>
+        <v>134</v>
+      </c>
+      <c r="C103" t="s">
+        <v>191</v>
       </c>
       <c r="D103" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="G103" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="H103">
-        <v>1.43</v>
+        <v>0.35</v>
       </c>
       <c r="I103">
-        <v>1.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>192</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="G104" t="s">
-        <v>404</v>
+        <v>448</v>
+      </c>
+      <c r="H104">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I104">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G105" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="H105">
-        <v>0.38</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I105">
-        <v>0.38</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D106" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>361</v>
-      </c>
-      <c r="G106" t="s">
-        <v>406</v>
+        <v>417</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>0.97660000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="I106">
-        <v>3.91</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D107" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G107" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="H107">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I107">
-        <v>8.9999999999999993E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G108" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="H108">
-        <v>0.1</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="I108">
-        <v>0.2</v>
+        <v>0.16980000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G109" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="H109">
-        <v>0.25</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I109">
-        <v>0.75</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G110" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="H110">
-        <v>9.3899999999999997E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="I110">
-        <v>9.3899999999999997E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D111" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G111" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="H111">
-        <v>1.6199999999999999E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="I111">
-        <v>1.6199999999999999E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G112" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="H112">
-        <v>2.23E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I112">
-        <v>2.23E-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D113" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G113" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="H113">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I113">
-        <v>3.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G114" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="H114">
-        <v>0.34</v>
+        <v>2.0580000000000001E-2</v>
       </c>
       <c r="I114">
-        <v>0.34</v>
+        <v>0.20582</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" t="s">
-        <v>192</v>
+        <v>134</v>
+      </c>
+      <c r="C115">
+        <v>885012208079</v>
       </c>
       <c r="D115" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="G115" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="H115">
-        <v>5.1499999999999997E-2</v>
+        <v>0.12</v>
       </c>
       <c r="I115">
-        <v>5.1499999999999997E-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G116" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="H116">
-        <v>5.1499999999999997E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="I116">
-        <v>5.1499999999999997E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F117" t="s">
-        <v>363</v>
-      </c>
-      <c r="G117">
-        <v>10</v>
+        <v>417</v>
+      </c>
+      <c r="G117" t="s">
+        <v>458</v>
       </c>
       <c r="H117">
-        <v>0.2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="I117">
-        <v>0.4</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>60</v>
+      <c r="A118">
+        <v>744042004</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
-      </c>
-      <c r="C118" t="s">
-        <v>195</v>
+        <v>135</v>
+      </c>
+      <c r="C118">
+        <v>744042004</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>361</v>
-      </c>
-      <c r="G118">
-        <v>10</v>
+        <v>418</v>
+      </c>
+      <c r="G118" t="s">
+        <v>459</v>
       </c>
       <c r="H118">
-        <v>2.1000000000000001E-2</v>
+        <v>1.43</v>
       </c>
       <c r="I118">
-        <v>6.3E-2</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G119" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="H119">
-        <v>1.4999999999999999E-2</v>
+        <v>0.3387</v>
       </c>
       <c r="I119">
-        <v>0.15</v>
+        <v>0.3387</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E120">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G120" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="H120">
-        <v>3.0000000000000001E-3</v>
+        <v>0.38</v>
       </c>
       <c r="I120">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G121" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="H121">
-        <v>0.111</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="I121">
-        <v>0.111</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G122" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="H122">
-        <v>0.44529999999999997</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="I122">
-        <v>0.44529999999999997</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D123" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="G123" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="H123">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I123">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E124">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G124" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="H124">
-        <v>6.0000000000000001E-3</v>
+        <v>0.25</v>
       </c>
       <c r="I124">
-        <v>4.8000000000000001E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G125" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="H125">
-        <v>2.3E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="I125">
-        <v>2.3E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B126" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G126" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H126">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="I126">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E127">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G127" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="H127">
-        <v>0.104</v>
+        <v>2.23E-2</v>
       </c>
       <c r="I127">
-        <v>2.39</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="E128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="G128" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="H128">
-        <v>0.12570000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="I128">
-        <v>0.75419999999999998</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>74477110</v>
+      <c r="A129" t="s">
+        <v>72</v>
       </c>
       <c r="B129" t="s">
-        <v>118</v>
-      </c>
-      <c r="C129">
-        <v>74477110</v>
+        <v>134</v>
+      </c>
+      <c r="C129" t="s">
+        <v>215</v>
       </c>
       <c r="D129" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="G129" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="H129">
-        <v>2.12</v>
+        <v>0.34</v>
       </c>
       <c r="I129">
-        <v>2.12</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C130" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D130" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="G130" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="H130">
-        <v>0.1341</v>
+        <v>1.45</v>
       </c>
       <c r="I130">
-        <v>0.26819999999999999</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>114</v>
-      </c>
-      <c r="C131" t="s">
-        <v>207</v>
+        <v>74</v>
+      </c>
+      <c r="C131">
+        <v>744771008</v>
       </c>
       <c r="D131" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="E131">
-        <v>4</v>
-      </c>
-      <c r="F131" t="s">
-        <v>363</v>
-      </c>
-      <c r="G131">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>744771008</v>
+      </c>
+      <c r="G131" t="s">
+        <v>469</v>
       </c>
       <c r="H131">
-        <v>2.5000000000000001E-2</v>
+        <v>2.12</v>
       </c>
       <c r="I131">
-        <v>0.25</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D132" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E132">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G132" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="H132">
-        <v>1.35E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I132">
-        <v>0.24299999999999999</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D133" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="E133">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G133" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="H133">
-        <v>1.4999999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I133">
-        <v>0.18</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B134" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D134" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>361</v>
-      </c>
-      <c r="G134" t="s">
-        <v>424</v>
+        <v>417</v>
+      </c>
+      <c r="G134">
+        <v>10</v>
       </c>
       <c r="H134">
-        <v>6.25E-2</v>
+        <v>0.2</v>
       </c>
       <c r="I134">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D135" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="E135">
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>336</v>
-      </c>
-      <c r="G135" t="s">
-        <v>424</v>
+        <v>415</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
       </c>
       <c r="H135">
-        <v>3.7600000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I135">
-        <v>0.1128</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G136" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="H136">
-        <v>5.5899999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I136">
-        <v>0.1118</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F137" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G137" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="H137">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I137">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D138" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G138" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="H138">
-        <v>6.2399999999999997E-2</v>
+        <v>0.252</v>
       </c>
       <c r="I138">
-        <v>6.2399999999999997E-2</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B139" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C139" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="G139" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="H139">
-        <v>6.0000000000000001E-3</v>
+        <v>0.44590000000000002</v>
       </c>
       <c r="I139">
-        <v>6.0000000000000001E-3</v>
+        <v>0.44590000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B140" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D140" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F140" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G140" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="H140">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I140">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B141" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C141" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D141" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G141" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="H141">
-        <v>7.5999999999999998E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I141">
-        <v>7.5999999999999998E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C142" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D142" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G142" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="H142">
-        <v>2.23E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I142">
-        <v>2.23E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B143" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C143" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D143" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G143" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="H143">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I143">
-        <v>2.4E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B144" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C144" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="G144" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="H144">
-        <v>5.6000000000000001E-2</v>
+        <v>0.104</v>
       </c>
       <c r="I144">
-        <v>5.6000000000000001E-2</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B145" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D145" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E145">
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="G145" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="H145">
-        <v>2E-3</v>
+        <v>0.12570000000000001</v>
       </c>
       <c r="I145">
-        <v>1.2E-2</v>
+        <v>0.75419999999999998</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C146" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D146" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="E146">
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G146" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="H146">
-        <v>0.59589999999999999</v>
+        <v>0.1341</v>
       </c>
       <c r="I146">
-        <v>1.19</v>
+        <v>0.26819999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B147" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C147" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D147" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>361</v>
-      </c>
-      <c r="G147" t="s">
-        <v>435</v>
+        <v>417</v>
+      </c>
+      <c r="G147">
+        <v>12</v>
       </c>
       <c r="H147">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I147">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B148" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C148" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F148" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G148" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="H148">
-        <v>3.3300000000000003E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I148">
-        <v>6.6600000000000006E-2</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C149" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D149" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="G149" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="H149">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="I149">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B150" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C150" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>363</v>
-      </c>
-      <c r="G150">
-        <v>36</v>
+        <v>383</v>
+      </c>
+      <c r="G150" t="s">
+        <v>481</v>
       </c>
       <c r="H150">
-        <v>6.3299999999999995E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I150">
-        <v>6.3299999999999995E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B151" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C151" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D151" t="s">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G151" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="H151">
-        <v>3.0000000000000001E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I151">
-        <v>3.0000000000000001E-3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B152" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C152" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D152" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F152" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G152" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="H152">
-        <v>3.5999999999999997E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="I152">
-        <v>0.14399999999999999</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C153" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D153" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G153" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="H153">
-        <v>1.7999999999999999E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="I153">
-        <v>1.7999999999999999E-2</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B154" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C154" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D154" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G154" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="H154">
-        <v>0.24</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I154">
-        <v>0.96</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C155" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="G155" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="H155">
-        <v>0.90890000000000004</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="I155">
-        <v>1.82</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C156" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D156" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E156">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>361</v>
-      </c>
-      <c r="G156">
-        <v>50</v>
+        <v>415</v>
+      </c>
+      <c r="G156" t="s">
+        <v>486</v>
       </c>
       <c r="H156">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I156">
-        <v>3.5999999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B157" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C157" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D157" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="E157">
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G157" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="H157">
-        <v>0.13</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I157">
-        <v>0.26</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B158" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C158" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D158" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>336</v>
-      </c>
-      <c r="G158">
-        <v>60</v>
+        <v>417</v>
+      </c>
+      <c r="G158" t="s">
+        <v>488</v>
       </c>
       <c r="H158">
-        <v>2.4799999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="I158">
-        <v>9.9199999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B159" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C159" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D159" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G159" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="H159">
-        <v>0.17130000000000001</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="I159">
-        <v>0.17130000000000001</v>
+        <v>5.4199999999999998E-2</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B160" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C160" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D160" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G160" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="H160">
-        <v>9.8000000000000004E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="I160">
-        <v>9.8000000000000004E-2</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B161" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D161" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E161">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>361</v>
-      </c>
-      <c r="G161">
-        <v>75</v>
+        <v>383</v>
+      </c>
+      <c r="G161" t="s">
+        <v>491</v>
       </c>
       <c r="H161">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I161">
-        <v>2.4E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B162" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C162" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D162" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G162" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="H162">
-        <v>9.5899999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I162">
-        <v>9.5899999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B163" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D163" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="E163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F163" t="s">
-        <v>361</v>
-      </c>
-      <c r="G163">
-        <v>100</v>
+        <v>415</v>
+      </c>
+      <c r="G163" t="s">
+        <v>492</v>
       </c>
       <c r="H163">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I163">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B164" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D164" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>363</v>
-      </c>
-      <c r="G164">
-        <v>100</v>
+        <v>420</v>
+      </c>
+      <c r="G164" t="s">
+        <v>493</v>
       </c>
       <c r="H164">
-        <v>6.0000000000000001E-3</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="I164">
-        <v>6.0000000000000001E-3</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B165" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C165" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D165" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G165" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="H165">
-        <v>6.1000000000000004E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I165">
-        <v>6.0999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B166" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D166" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E166">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G166" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="H166">
-        <v>4.0000000000000001E-3</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="I166">
-        <v>2.4E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B167" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C167" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D167" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G167" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="H167">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I167">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B168" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C168" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D168" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E168">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
-      </c>
-      <c r="G168" t="s">
-        <v>448</v>
+        <v>417</v>
+      </c>
+      <c r="G168">
+        <v>36</v>
       </c>
       <c r="H168">
-        <v>1.1900000000000001E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="I168">
-        <v>1.19</v>
+        <v>6.3299999999999995E-2</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C169" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D169" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E169">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G169" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="H169">
-        <v>1.78E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I169">
-        <v>0.99680000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B170" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C170" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D170" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F170" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G170" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="H170">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I170">
-        <v>1.4999999999999999E-2</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B171" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C171" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D171" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="E171">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="G171" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="H171">
-        <v>6.0000000000000001E-3</v>
+        <v>2.9960000000000001E-2</v>
       </c>
       <c r="I171">
-        <v>5.3999999999999999E-2</v>
+        <v>2.9960000000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C172" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D172" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E172">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="G172" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="H172">
-        <v>1.1000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="I172">
-        <v>6.63</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B173" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C173" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D173" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="G173" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="H173">
-        <v>0.44</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="I173">
-        <v>0.44</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B174" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C174" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D174" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F174" t="s">
-        <v>363</v>
-      </c>
-      <c r="G174" t="s">
-        <v>451</v>
+        <v>415</v>
+      </c>
+      <c r="G174">
+        <v>50</v>
       </c>
       <c r="H174">
-        <v>0.1603</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I174">
-        <v>0.3206</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C175" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D175" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>361</v>
-      </c>
-      <c r="G175">
-        <v>150</v>
+        <v>383</v>
+      </c>
+      <c r="G175" t="s">
+        <v>501</v>
       </c>
       <c r="H175">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I175">
-        <v>3.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B176" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C176" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D176" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G176" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="H176">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I176">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C177" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D177" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F177" t="s">
-        <v>361</v>
-      </c>
-      <c r="G177" t="s">
-        <v>453</v>
+        <v>383</v>
+      </c>
+      <c r="G177">
+        <v>60</v>
       </c>
       <c r="H177">
-        <v>1.35E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="I177">
-        <v>1.35E-2</v>
+        <v>9.9199999999999997E-2</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C178" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D178" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>361</v>
-      </c>
-      <c r="G178">
-        <v>160</v>
+        <v>417</v>
+      </c>
+      <c r="G178" t="s">
+        <v>503</v>
       </c>
       <c r="H178">
-        <v>4.8500000000000001E-2</v>
+        <v>0.17130000000000001</v>
       </c>
       <c r="I178">
-        <v>4.8500000000000001E-2</v>
+        <v>0.17130000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B179" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C179" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D179" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G179" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="H179">
-        <v>2.8199999999999999E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I179">
-        <v>5.6399999999999999E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B180" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C180" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D180" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G180">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="H180">
-        <v>1.7000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I180">
-        <v>1.7000000000000001E-2</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B181" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C181" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D181" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G181" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="H181">
-        <v>0.63</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="I181">
-        <v>1.26</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B182" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C182" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D182" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G182">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H182">
-        <v>9.5899999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I182">
-        <v>9.5899999999999999E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B183" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C183" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D183" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>361</v>
-      </c>
-      <c r="G183" t="s">
-        <v>456</v>
+        <v>417</v>
+      </c>
+      <c r="G183">
+        <v>100</v>
       </c>
       <c r="H183">
-        <v>5.74E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I183">
-        <v>5.74E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B184" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C184" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D184" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E184">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F184" t="s">
-        <v>336</v>
-      </c>
-      <c r="G184">
-        <v>330</v>
+        <v>383</v>
+      </c>
+      <c r="G184" t="s">
+        <v>506</v>
       </c>
       <c r="H184">
-        <v>3.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="I184">
-        <v>5.3999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B185" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C185" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D185" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F185" t="s">
-        <v>363</v>
-      </c>
-      <c r="G185">
-        <v>330</v>
+        <v>415</v>
+      </c>
+      <c r="G185" t="s">
+        <v>506</v>
       </c>
       <c r="H185">
-        <v>3.3300000000000003E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I185">
-        <v>3.3300000000000003E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B186" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C186" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D186" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>361</v>
-      </c>
-      <c r="G186">
-        <v>330</v>
+        <v>417</v>
+      </c>
+      <c r="G186" t="s">
+        <v>507</v>
       </c>
       <c r="H186">
-        <v>9.8000000000000004E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I186">
-        <v>9.8000000000000004E-2</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B187" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C187" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D187" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G187" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="H187">
-        <v>4.8599999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="I187">
-        <v>4.8599999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B188" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C188" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D188" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F188" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G188" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="H188">
-        <v>4.9599999999999998E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="I188">
-        <v>4.9599999999999998E-2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C189" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D189" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F189" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G189" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="H189">
-        <v>1.2999999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="I189">
-        <v>0.13</v>
+        <v>0.99680000000000002</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B190" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C190" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>336</v>
-      </c>
-      <c r="G190">
-        <v>470</v>
+        <v>417</v>
+      </c>
+      <c r="G190" t="s">
+        <v>509</v>
       </c>
       <c r="H190">
-        <v>4.0000000000000001E-3</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="I190">
-        <v>0.04</v>
+        <v>4.9700000000000001E-2</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B191" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C191" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D191" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="E191">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>361</v>
-      </c>
-      <c r="G191">
-        <v>470</v>
+        <v>415</v>
+      </c>
+      <c r="G191" t="s">
+        <v>510</v>
       </c>
       <c r="H191">
-        <v>1.2E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I191">
-        <v>0.12</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B192" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C192" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="E192">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F192" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="G192" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="H192">
-        <v>6.0000000000000001E-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I192">
-        <v>0.10199999999999999</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C193" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D193" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="G193" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="H193">
-        <v>0.1115</v>
+        <v>0.44</v>
       </c>
       <c r="I193">
-        <v>0.5575</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B194" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C194" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D194" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>361</v>
-      </c>
-      <c r="G194">
-        <v>500</v>
+        <v>417</v>
+      </c>
+      <c r="G194" t="s">
+        <v>512</v>
       </c>
       <c r="H194">
-        <v>2.9499999999999998E-2</v>
+        <v>0.16059999999999999</v>
       </c>
       <c r="I194">
-        <v>0.17699999999999999</v>
+        <v>0.32119999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B195" t="s">
+        <v>133</v>
       </c>
       <c r="C195" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D195" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>336</v>
-      </c>
-      <c r="G195" t="s">
-        <v>460</v>
+        <v>415</v>
+      </c>
+      <c r="G195">
+        <v>150</v>
       </c>
       <c r="H195">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I195">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="B196" t="s">
+        <v>133</v>
       </c>
       <c r="C196" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D196" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="E196">
-        <v>12</v>
-      </c>
-      <c r="F196">
-        <v>603</v>
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>415</v>
       </c>
       <c r="G196" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="H196">
-        <v>2.5999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I196">
-        <v>0.312</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B197" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C197" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D197" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>363</v>
-      </c>
-      <c r="G197">
-        <v>680</v>
+        <v>415</v>
+      </c>
+      <c r="G197" t="s">
+        <v>514</v>
       </c>
       <c r="H197">
-        <v>0.1</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I197">
-        <v>0.2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B198" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C198" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D198" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>336</v>
-      </c>
-      <c r="G198" t="s">
-        <v>461</v>
+        <v>415</v>
+      </c>
+      <c r="G198">
+        <v>160</v>
       </c>
       <c r="H198">
-        <v>4.3900000000000002E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="I198">
-        <v>0.2195</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B199" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C199" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D199" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="G199" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="H199">
-        <v>2.4799999999999999E-2</v>
+        <v>9.98E-2</v>
       </c>
       <c r="I199">
-        <v>2.4799999999999999E-2</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="B200" t="s">
+        <v>133</v>
       </c>
       <c r="C200" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="D200" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>369</v>
-      </c>
-      <c r="G200" t="s">
-        <v>68</v>
+        <v>383</v>
+      </c>
+      <c r="G200">
+        <v>220</v>
       </c>
       <c r="H200">
-        <v>6.44</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I200">
-        <v>6.44</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="B201" t="s">
+        <v>133</v>
       </c>
       <c r="C201" t="s">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="D201" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="G201" t="s">
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="H201">
-        <v>0.80620000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="I201">
-        <v>0.80620000000000003</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B202" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="C202" t="s">
+        <v>287</v>
       </c>
       <c r="D202" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>361</v>
-      </c>
-      <c r="G202" t="s">
-        <v>462</v>
+        <v>415</v>
+      </c>
+      <c r="G202">
+        <v>260</v>
+      </c>
+      <c r="H202">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="I202">
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B203" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="C203" t="s">
+        <v>288</v>
       </c>
       <c r="D203" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="E203">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G203" t="s">
-        <v>463</v>
+        <v>517</v>
+      </c>
+      <c r="H203">
+        <v>5.74E-2</v>
+      </c>
+      <c r="I203">
+        <v>5.74E-2</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B204" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="C204" t="s">
+        <v>289</v>
       </c>
       <c r="D204" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F204" t="s">
-        <v>363</v>
-      </c>
-      <c r="G204" t="s">
-        <v>463</v>
+        <v>383</v>
+      </c>
+      <c r="G204">
+        <v>330</v>
+      </c>
+      <c r="H204">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="I204">
+        <v>9.69E-2</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B205" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="C205" t="s">
+        <v>290</v>
       </c>
       <c r="D205" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>336</v>
-      </c>
-      <c r="G205" t="s">
-        <v>463</v>
+        <v>417</v>
+      </c>
+      <c r="G205">
+        <v>330</v>
+      </c>
+      <c r="H205">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="I205">
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B206" t="s">
+        <v>133</v>
       </c>
       <c r="C206" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="D206" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>371</v>
-      </c>
-      <c r="G206" t="s">
-        <v>70</v>
+        <v>415</v>
+      </c>
+      <c r="G206">
+        <v>330</v>
       </c>
       <c r="H206">
-        <v>1.66</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I206">
-        <v>1.66</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B207" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C207" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="D207" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="G207" t="s">
-        <v>375</v>
+        <v>518</v>
       </c>
       <c r="H207">
-        <v>16.600000000000001</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="I207">
-        <v>16.600000000000001</v>
+        <v>4.8599999999999997E-2</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7472,53 +7649,611 @@
         <v>72</v>
       </c>
       <c r="B208" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C208" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="D208" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="E208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G208" t="s">
-        <v>375</v>
+        <v>518</v>
       </c>
       <c r="H208">
-        <v>2.2999999999999998</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="I208">
-        <v>9.1999999999999993</v>
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="B209" t="s">
+        <v>133</v>
       </c>
       <c r="C209" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="D209" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>383</v>
+      </c>
+      <c r="G209" t="s">
+        <v>519</v>
+      </c>
+      <c r="H209">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I209">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>71</v>
+      </c>
+      <c r="B210" t="s">
+        <v>133</v>
+      </c>
+      <c r="C210" t="s">
+        <v>295</v>
+      </c>
+      <c r="D210" t="s">
+        <v>355</v>
+      </c>
+      <c r="E210">
+        <v>10</v>
+      </c>
+      <c r="F210" t="s">
+        <v>383</v>
+      </c>
+      <c r="G210">
+        <v>470</v>
+      </c>
+      <c r="H210">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I210">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>71</v>
+      </c>
+      <c r="B211" t="s">
+        <v>133</v>
+      </c>
+      <c r="C211" t="s">
+        <v>296</v>
+      </c>
+      <c r="D211" t="s">
+        <v>343</v>
+      </c>
+      <c r="E211">
+        <v>8</v>
+      </c>
+      <c r="F211" t="s">
+        <v>415</v>
+      </c>
+      <c r="G211">
+        <v>470</v>
+      </c>
+      <c r="H211">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I211">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>72</v>
+      </c>
+      <c r="B212" t="s">
+        <v>134</v>
+      </c>
+      <c r="C212" t="s">
+        <v>297</v>
+      </c>
+      <c r="D212" t="s">
+        <v>307</v>
+      </c>
+      <c r="E212">
+        <v>17</v>
+      </c>
+      <c r="F212" t="s">
+        <v>383</v>
+      </c>
+      <c r="G212" t="s">
+        <v>520</v>
+      </c>
+      <c r="H212">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I212">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>72</v>
+      </c>
+      <c r="B213" t="s">
+        <v>134</v>
+      </c>
+      <c r="C213" t="s">
+        <v>298</v>
+      </c>
+      <c r="D213" t="s">
+        <v>339</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>415</v>
+      </c>
+      <c r="G213" t="s">
+        <v>520</v>
+      </c>
+      <c r="H213">
+        <v>0.1115</v>
+      </c>
+      <c r="I213">
+        <v>0.5575</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>71</v>
+      </c>
+      <c r="B214" t="s">
+        <v>133</v>
+      </c>
+      <c r="C214" t="s">
+        <v>299</v>
+      </c>
+      <c r="D214" t="s">
+        <v>307</v>
+      </c>
+      <c r="E214">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>415</v>
+      </c>
+      <c r="G214">
+        <v>500</v>
+      </c>
+      <c r="H214">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="I214">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>72</v>
+      </c>
+      <c r="B215" t="s">
+        <v>134</v>
+      </c>
+      <c r="C215" t="s">
+        <v>300</v>
+      </c>
+      <c r="D215" t="s">
+        <v>317</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>417</v>
+      </c>
+      <c r="G215" t="s">
+        <v>521</v>
+      </c>
+      <c r="H215">
+        <v>4.4290000000000003E-2</v>
+      </c>
+      <c r="I215">
+        <v>4.4290000000000003E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>77</v>
+      </c>
+      <c r="C216" t="s">
+        <v>301</v>
+      </c>
+      <c r="D216" t="s">
+        <v>307</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>383</v>
+      </c>
+      <c r="G216" t="s">
+        <v>522</v>
+      </c>
+      <c r="H216">
+        <v>0.1</v>
+      </c>
+      <c r="I216">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>78</v>
+      </c>
+      <c r="C217" t="s">
+        <v>302</v>
+      </c>
+      <c r="D217" t="s">
+        <v>307</v>
+      </c>
+      <c r="E217">
+        <v>12</v>
+      </c>
+      <c r="F217">
+        <v>603</v>
+      </c>
+      <c r="G217" t="s">
+        <v>522</v>
+      </c>
+      <c r="H217">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I217">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>71</v>
+      </c>
+      <c r="B218" t="s">
+        <v>133</v>
+      </c>
+      <c r="C218" t="s">
+        <v>303</v>
+      </c>
+      <c r="D218" t="s">
+        <v>356</v>
+      </c>
+      <c r="E218">
         <v>3</v>
       </c>
-      <c r="F209" t="s">
-        <v>374</v>
-      </c>
-      <c r="G209" t="s">
-        <v>375</v>
-      </c>
-      <c r="H209">
+      <c r="F218" t="s">
+        <v>417</v>
+      </c>
+      <c r="G218">
+        <v>680</v>
+      </c>
+      <c r="H218">
+        <v>0.1</v>
+      </c>
+      <c r="I218">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>72</v>
+      </c>
+      <c r="B219" t="s">
+        <v>134</v>
+      </c>
+      <c r="C219" t="s">
+        <v>304</v>
+      </c>
+      <c r="D219" t="s">
+        <v>357</v>
+      </c>
+      <c r="E219">
+        <v>6</v>
+      </c>
+      <c r="F219" t="s">
+        <v>383</v>
+      </c>
+      <c r="G219" t="s">
+        <v>523</v>
+      </c>
+      <c r="H219">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="I219">
+        <v>0.26340000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>72</v>
+      </c>
+      <c r="B220" t="s">
+        <v>134</v>
+      </c>
+      <c r="C220" t="s">
+        <v>305</v>
+      </c>
+      <c r="D220" t="s">
+        <v>314</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>415</v>
+      </c>
+      <c r="G220" t="s">
+        <v>523</v>
+      </c>
+      <c r="H220">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="I220">
+        <v>2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>79</v>
+      </c>
+      <c r="C221" t="s">
+        <v>79</v>
+      </c>
+      <c r="D221" t="s">
+        <v>314</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>423</v>
+      </c>
+      <c r="G221" t="s">
+        <v>79</v>
+      </c>
+      <c r="H221">
+        <v>6.44</v>
+      </c>
+      <c r="I221">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>80</v>
+      </c>
+      <c r="C222" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" t="s">
+        <v>314</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>424</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+      <c r="H222">
+        <v>0.80242999999999998</v>
+      </c>
+      <c r="I222">
+        <v>0.80242999999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>72</v>
+      </c>
+      <c r="B223" t="s">
+        <v>134</v>
+      </c>
+      <c r="D223" t="s">
+        <v>318</v>
+      </c>
+      <c r="E223">
+        <v>4</v>
+      </c>
+      <c r="F223" t="s">
+        <v>415</v>
+      </c>
+      <c r="G223" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>72</v>
+      </c>
+      <c r="B224" t="s">
+        <v>134</v>
+      </c>
+      <c r="D224" t="s">
+        <v>314</v>
+      </c>
+      <c r="E224">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>383</v>
+      </c>
+      <c r="G224" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>72</v>
+      </c>
+      <c r="B225" t="s">
+        <v>134</v>
+      </c>
+      <c r="D225" t="s">
+        <v>312</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>417</v>
+      </c>
+      <c r="G225" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>71</v>
+      </c>
+      <c r="B226" t="s">
+        <v>133</v>
+      </c>
+      <c r="D226" t="s">
+        <v>312</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>383</v>
+      </c>
+      <c r="G226" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>81</v>
+      </c>
+      <c r="C227" t="s">
+        <v>81</v>
+      </c>
+      <c r="D227" t="s">
+        <v>314</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>425</v>
+      </c>
+      <c r="G227" t="s">
+        <v>81</v>
+      </c>
+      <c r="H227">
+        <v>1.66</v>
+      </c>
+      <c r="I227">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>82</v>
+      </c>
+      <c r="B228" t="s">
+        <v>89</v>
+      </c>
+      <c r="C228" t="s">
+        <v>82</v>
+      </c>
+      <c r="D228" t="s">
+        <v>311</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>426</v>
+      </c>
+      <c r="G228" t="s">
+        <v>429</v>
+      </c>
+      <c r="H228">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I228">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>83</v>
+      </c>
+      <c r="B229" t="s">
+        <v>89</v>
+      </c>
+      <c r="C229" t="s">
+        <v>83</v>
+      </c>
+      <c r="D229" t="s">
+        <v>313</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>427</v>
+      </c>
+      <c r="G229" t="s">
+        <v>429</v>
+      </c>
+      <c r="H229">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I229">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>84</v>
+      </c>
+      <c r="C230" t="s">
+        <v>84</v>
+      </c>
+      <c r="D230" t="s">
+        <v>314</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+      <c r="F230" t="s">
+        <v>428</v>
+      </c>
+      <c r="G230" t="s">
+        <v>429</v>
+      </c>
+      <c r="H230">
         <v>4.2300000000000004</v>
       </c>
-      <c r="I209">
+      <c r="I230">
         <v>12.69</v>
       </c>
     </row>

--- a/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
+++ b/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Motherboard Assembly\Project Outputs for Motherboard Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C93D04A-4D93-4092-8075-6FDF0FB0C46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE5B086-6EDD-415E-B84F-DEBA801FB26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="7200" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
+++ b/Motherboard Assembly/Project Outputs for Motherboard Assembly/Motherboard Assembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Motherboard Assembly\Project Outputs for Motherboard Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D3DB60-5944-41E1-A54B-59509076BA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{838865F7-DCE9-4008-93DC-35CA4C44C092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="568">
   <si>
     <t>Name</t>
   </si>
@@ -90,6 +90,9 @@
     <t>M20048-1</t>
   </si>
   <si>
+    <t>Fuse 1</t>
+  </si>
+  <si>
     <t>BNO055</t>
   </si>
   <si>
@@ -174,9 +177,6 @@
     <t>3557-2</t>
   </si>
   <si>
-    <t>Fuse 1</t>
-  </si>
-  <si>
     <t>NPN</t>
   </si>
   <si>
@@ -348,6 +348,9 @@
     <t>500 MHz to 1500 MHz Quadrature Modulator, CP-24-2, Pb-Free, 1500 Reel</t>
   </si>
   <si>
+    <t>Fuse</t>
+  </si>
+  <si>
     <t>IMU ACCEL/GYRO/MAG I2C 28LGA</t>
   </si>
   <si>
@@ -396,9 +399,6 @@
     <t>Connector Header Through Hole 2 position 0.156 _3.96mm_</t>
   </si>
   <si>
-    <t>Fuse</t>
-  </si>
-  <si>
     <t>NPN Bipolar Transistor</t>
   </si>
   <si>
@@ -489,6 +489,9 @@
     <t>L944-UV265-2-20</t>
   </si>
   <si>
+    <t>0685P6000-01</t>
+  </si>
+  <si>
     <t>SRR1260-120M</t>
   </si>
   <si>
@@ -594,15 +597,15 @@
     <t>RK73H1ETTP3R30F</t>
   </si>
   <si>
-    <t>0452001.MRL</t>
-  </si>
-  <si>
     <t>LPWI160808H1R0T</t>
   </si>
   <si>
     <t>MMBT3904-TP</t>
   </si>
   <si>
+    <t>PIC16F15375-E/MV</t>
+  </si>
+  <si>
     <t>MP5087GG-Z</t>
   </si>
   <si>
@@ -786,12 +789,12 @@
     <t>UMK105B7472KV-F</t>
   </si>
   <si>
+    <t>TMK105BJ223KV-F</t>
+  </si>
+  <si>
     <t>UMK325AB7106MM-T</t>
   </si>
   <si>
-    <t>TMK105BJ223KV-F</t>
-  </si>
-  <si>
     <t>TMK105BJ333KV-F</t>
   </si>
   <si>
@@ -849,12 +852,6 @@
     <t>CRCW0603100MJPEAHR</t>
   </si>
   <si>
-    <t>PNM0402E5001BST1</t>
-  </si>
-  <si>
-    <t>CRCW1206330RFKTA</t>
-  </si>
-  <si>
     <t>WSLP1206R0500FEA</t>
   </si>
   <si>
@@ -885,39 +882,39 @@
     <t>CC0402BRNPO9BNR80</t>
   </si>
   <si>
+    <t>CC0402KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB103</t>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN2R2</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN180</t>
+  </si>
+  <si>
+    <t>CC0402DRNPO9BN5R6</t>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN4R7</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN100</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN300</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB681</t>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN120</t>
+  </si>
+  <si>
     <t>CC0402JRNPO9BN101</t>
   </si>
   <si>
-    <t>CC0402KRX7R9BB102</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R7BB103</t>
-  </si>
-  <si>
-    <t>CC0402CRNPO9BN2R2</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN180</t>
-  </si>
-  <si>
-    <t>CC0402DRNPO9BN5R6</t>
-  </si>
-  <si>
-    <t>CC0402CRNPO9BN4R7</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN100</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN300</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R9BB681</t>
-  </si>
-  <si>
-    <t>CC0402JRNPO9BN120</t>
-  </si>
-  <si>
     <t>CC0402KRX5R6BB334</t>
   </si>
   <si>
@@ -927,6 +924,9 @@
     <t>RC0603JR-07470RL</t>
   </si>
   <si>
+    <t>RC0402FR-075KL</t>
+  </si>
+  <si>
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
@@ -939,6 +939,9 @@
     <t>RC0402JR-070RL</t>
   </si>
   <si>
+    <t>RC1206FR-07330RL</t>
+  </si>
+  <si>
     <t>RC0402FR-07330RL</t>
   </si>
   <si>
@@ -1152,15 +1155,15 @@
     <t>Mother Board.PcbDoc, M2RB.PcbDoc, TransmitterBoard.PcbDoc, Airbrake Motor Controller.PcbDoc, Biological Payload Data Consolidator.PcbDoc, ACDC.PcbDoc</t>
   </si>
   <si>
+    <t>ACDC.PcbDoc, M2RB.PcbDoc, Mother Board.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
+  </si>
+  <si>
+    <t>Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, M2RB.PcbDoc</t>
+  </si>
+  <si>
     <t>Biological Payload Data Consolidator.PcbDoc, M2RB.PcbDoc, Photo-Diode Board.PcbDoc</t>
   </si>
   <si>
-    <t>ACDC.PcbDoc, M2RB.PcbDoc, Mother Board.PcbDoc, Airbrake Motor Controller.PcbDoc</t>
-  </si>
-  <si>
-    <t>Airbrake Motor Controller.PcbDoc, ACDC.PcbDoc, M2RB.PcbDoc</t>
-  </si>
-  <si>
     <t>M2RB.PcbDoc, Airbrake Motor Controller.PcbDoc, Biological Payload Data Consolidator.PcbDoc</t>
   </si>
   <si>
@@ -1224,6 +1227,9 @@
     <t>ADI-CP-24-2_N</t>
   </si>
   <si>
+    <t>C1206</t>
+  </si>
+  <si>
     <t>FP-BNO055-MFG</t>
   </si>
   <si>
@@ -1299,9 +1305,6 @@
     <t>CONN_3557-2_KEY</t>
   </si>
   <si>
-    <t>C1206</t>
-  </si>
-  <si>
     <t>SOT23_M</t>
   </si>
   <si>
@@ -1647,52 +1650,52 @@
     <t>100M</t>
   </si>
   <si>
+    <t>150nF</t>
+  </si>
+  <si>
+    <t>300pF</t>
+  </si>
+  <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>68nF</t>
+  </si>
+  <si>
+    <t>7.5uH</t>
+  </si>
+  <si>
+    <t>20pF</t>
+  </si>
+  <si>
+    <t>680pF</t>
+  </si>
+  <si>
+    <t>0.8pF</t>
+  </si>
+  <si>
+    <t>2.2pF</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
     <t>5k</t>
-  </si>
-  <si>
-    <t>150nF</t>
-  </si>
-  <si>
-    <t>300pF</t>
-  </si>
-  <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>68nF</t>
-  </si>
-  <si>
-    <t>7.5uH</t>
-  </si>
-  <si>
-    <t>20pF</t>
-  </si>
-  <si>
-    <t>680pF</t>
-  </si>
-  <si>
-    <t>0.8pF</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>2.2pF</t>
-  </si>
-  <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>5.6pF</t>
-  </si>
-  <si>
-    <t>4.7pF</t>
-  </si>
-  <si>
-    <t>30pF</t>
-  </si>
-  <si>
-    <t>12pF</t>
   </si>
   <si>
     <t>4.7k</t>
@@ -2129,22 +2132,22 @@
         <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2152,13 +2155,13 @@
         <v>5029</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2166,13 +2169,13 @@
         <v>5029</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E3">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2183,16 +2186,16 @@
         <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2203,16 +2206,16 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2223,16 +2226,16 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2243,16 +2246,16 @@
         <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2263,13 +2266,13 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2280,13 +2283,13 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2297,13 +2300,13 @@
         <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2311,13 +2314,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2328,16 +2331,16 @@
         <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2351,19 +2354,19 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H13">
-        <v>0.95330000000000004</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="I13">
-        <v>0.95330000000000004</v>
+        <v>0.98650000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2377,19 +2380,19 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H14">
-        <v>0.4632</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="I14">
-        <v>0.4632</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2403,7 +2406,7 @@
         <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2420,7 +2423,7 @@
         <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2446,19 +2449,19 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H17">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="I17">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2472,13 +2475,13 @@
         <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H18">
         <v>0.39879999999999999</v>
@@ -2495,7 +2498,7 @@
         <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2512,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2538,13 +2541,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H21">
         <v>18.2</v>
@@ -2564,13 +2567,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H22">
         <v>10.57</v>
@@ -2587,7 +2590,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2610,16 +2613,22 @@
         <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="H24">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="I24">
+        <v>0.67679999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2627,112 +2636,106 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
-        <v>151</v>
-      </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>397</v>
-      </c>
-      <c r="G25" t="s">
-        <v>465</v>
-      </c>
-      <c r="H25">
-        <v>0.5292</v>
-      </c>
-      <c r="I25">
-        <v>1.06</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="G26" t="s">
         <v>466</v>
       </c>
       <c r="H26">
-        <v>0.1042</v>
+        <v>0.54090000000000005</v>
       </c>
       <c r="I26">
-        <v>0.4168</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>383</v>
-      </c>
-      <c r="G27">
-        <v>330</v>
+        <v>384</v>
+      </c>
+      <c r="G27" t="s">
+        <v>467</v>
       </c>
       <c r="H27">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1042</v>
       </c>
       <c r="I27">
-        <v>3.0000000000000001E-3</v>
+        <v>0.4168</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>398</v>
+        <v>384</v>
+      </c>
+      <c r="G28">
+        <v>330</v>
       </c>
       <c r="H28">
-        <v>0.26</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I28">
-        <v>0.26</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2746,82 +2749,82 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H29">
-        <v>0.42420000000000002</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I29">
-        <v>1.27</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>385</v>
-      </c>
-      <c r="G30" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="H30">
-        <v>3.1899999999999998E-2</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="I30">
-        <v>6.3799999999999996E-2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
         <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>400</v>
+        <v>386</v>
+      </c>
+      <c r="G31" t="s">
+        <v>468</v>
       </c>
       <c r="H31">
-        <v>0.82</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="I31">
-        <v>0.82</v>
+        <v>6.3799999999999996E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>156</v>
@@ -2833,65 +2836,71 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>384</v>
-      </c>
-      <c r="G32" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="H32">
-        <v>0.1</v>
+        <v>0.82</v>
       </c>
       <c r="I32">
-        <v>0.1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G33" t="s">
         <v>469</v>
       </c>
       <c r="H33">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="I33">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>401</v>
+        <v>385</v>
+      </c>
+      <c r="G34" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34">
+        <v>0.24</v>
+      </c>
+      <c r="I34">
+        <v>0.48</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2902,25 +2911,16 @@
         <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>402</v>
-      </c>
-      <c r="G35" t="s">
-        <v>470</v>
-      </c>
-      <c r="H35">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.14000000000000001</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2928,25 +2928,22 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>403</v>
-      </c>
-      <c r="H36">
-        <v>0.2301</v>
-      </c>
-      <c r="I36">
-        <v>1.1499999999999999</v>
+        <v>404</v>
+      </c>
+      <c r="G36" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2954,25 +2951,25 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
         <v>339</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H37">
-        <v>0.08</v>
+        <v>0.2301</v>
       </c>
       <c r="I37">
-        <v>0.24</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,19 +2983,19 @@
         <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H38">
-        <v>5.2999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I38">
-        <v>0.106</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3012,114 +3009,120 @@
         <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H39">
-        <v>0.43530000000000002</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I39">
-        <v>4.3499999999999996</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
         <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="H40">
-        <v>0.30099999999999999</v>
+        <v>0.43819999999999998</v>
       </c>
       <c r="I40">
-        <v>1.2</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>163</v>
       </c>
       <c r="H41">
-        <v>0.69</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I41">
-        <v>0.69</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
       <c r="C42" t="s">
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="H42">
-        <v>0.41920000000000002</v>
+        <v>0.69</v>
       </c>
       <c r="I42">
-        <v>0.41920000000000002</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="I43">
+        <v>0.41920000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,22 +3133,16 @@
         <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44">
-        <v>0.33</v>
-      </c>
-      <c r="I44">
-        <v>0.33</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3156,16 +3153,22 @@
         <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>408</v>
+        <v>33</v>
+      </c>
+      <c r="H45">
+        <v>0.33</v>
+      </c>
+      <c r="I45">
+        <v>0.33</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3176,22 +3179,22 @@
         <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H46">
-        <v>1.22</v>
+        <v>0.38</v>
       </c>
       <c r="I46">
-        <v>3.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3199,7 +3202,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -3208,65 +3211,65 @@
         <v>342</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H47">
-        <v>35</v>
+        <v>1.22</v>
       </c>
       <c r="I47">
-        <v>70</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H48">
-        <v>7.31</v>
+        <v>35</v>
       </c>
       <c r="I48">
-        <v>7.31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>425</v>
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
       </c>
       <c r="H49">
-        <v>5.0999999999999997E-2</v>
+        <v>7.31</v>
       </c>
       <c r="I49">
-        <v>0.10199999999999999</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3274,25 +3277,25 @@
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
-        <v>412</v>
+      <c r="F50">
+        <v>425</v>
       </c>
       <c r="H50">
-        <v>0.13</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I50">
-        <v>0.26</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3300,25 +3303,25 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H51">
-        <v>2.11</v>
+        <v>0.13</v>
       </c>
       <c r="I51">
-        <v>2.11</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3326,25 +3329,25 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H52">
-        <v>0.14000000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="I52">
-        <v>0.98</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3352,25 +3355,25 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
         <v>345</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H53">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I53">
-        <v>0.56999999999999995</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3378,10 +3381,10 @@
         <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
         <v>346</v>
@@ -3390,13 +3393,13 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H54">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I54">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3404,25 +3407,25 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H55">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I55">
-        <v>0.19</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3430,80 +3433,77 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
         <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H56">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I56">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
         <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H57">
-        <v>0.26800000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="I57">
-        <v>0.53600000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>384</v>
-      </c>
-      <c r="G58" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="H58">
-        <v>0.1</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="I58">
-        <v>0.1</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3517,22 +3517,22 @@
         <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G59" t="s">
         <v>472</v>
       </c>
       <c r="H59">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I59">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,22 +3546,22 @@
         <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G60" t="s">
         <v>473</v>
       </c>
       <c r="H60">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="I60">
-        <v>0.34</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3575,22 +3575,22 @@
         <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G61" t="s">
         <v>474</v>
       </c>
       <c r="H61">
-        <v>9.8299999999999998E-2</v>
+        <v>0.34</v>
       </c>
       <c r="I61">
-        <v>9.8299999999999998E-2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3604,22 +3604,22 @@
         <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G62" t="s">
         <v>475</v>
       </c>
       <c r="H62">
-        <v>2.3E-2</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="I62">
-        <v>4.5999999999999999E-2</v>
+        <v>9.8299999999999998E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3633,7 +3633,7 @@
         <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3645,10 +3645,10 @@
         <v>476</v>
       </c>
       <c r="H63">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I63">
-        <v>0.01</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3662,100 +3662,100 @@
         <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G64" t="s">
         <v>477</v>
       </c>
       <c r="H64">
-        <v>1.0999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I64">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>385</v>
+      </c>
+      <c r="G65" t="s">
+        <v>478</v>
       </c>
       <c r="H65">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>422</v>
+      </c>
+      <c r="H66">
         <v>0.88</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>0.88</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>5029</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>5029</v>
       </c>
-      <c r="D66" t="s">
-        <v>325</v>
-      </c>
-      <c r="E66">
+      <c r="D67" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67">
         <v>8</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>5029</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <v>0.31</v>
       </c>
-      <c r="I66">
+      <c r="I67">
         <v>2.48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" t="s">
-        <v>329</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>385</v>
-      </c>
-      <c r="G67" t="s">
-        <v>478</v>
-      </c>
-      <c r="H67">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I67">
-        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3769,22 +3769,22 @@
         <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G68" t="s">
         <v>479</v>
       </c>
       <c r="H68">
-        <v>2.7099999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I68">
-        <v>5.4199999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3798,22 +3798,22 @@
         <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G69" t="s">
         <v>480</v>
       </c>
       <c r="H69">
-        <v>1.2999999999999999E-2</v>
+        <v>9.98E-2</v>
       </c>
       <c r="I69">
-        <v>0.13</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3827,22 +3827,22 @@
         <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>385</v>
-      </c>
-      <c r="G70">
-        <v>12</v>
+        <v>384</v>
+      </c>
+      <c r="G70" t="s">
+        <v>481</v>
       </c>
       <c r="H70">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I70">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3856,22 +3856,22 @@
         <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G71">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>1.7000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I71">
-        <v>1.7000000000000001E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3885,22 +3885,22 @@
         <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="H72">
-        <v>0.1</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="I72">
-        <v>0.1</v>
+        <v>1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,22 +3914,22 @@
         <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>385</v>
-      </c>
-      <c r="G73" t="s">
-        <v>481</v>
+        <v>386</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
       </c>
       <c r="H73">
         <v>0.1</v>
       </c>
       <c r="I73">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3943,71 +3943,74 @@
         <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>384</v>
-      </c>
-      <c r="G74">
-        <v>3.3</v>
+        <v>386</v>
+      </c>
+      <c r="G74" t="s">
+        <v>482</v>
       </c>
       <c r="H74">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I74">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
         <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>421</v>
+        <v>385</v>
+      </c>
+      <c r="G75">
+        <v>3.3</v>
       </c>
       <c r="H75">
-        <v>1.36</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I75">
-        <v>1.36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
         <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G76" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H76">
         <v>0.64</v>
@@ -4027,19 +4030,19 @@
         <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H77">
-        <v>9.8000000000000004E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="I77">
-        <v>0.19600000000000001</v>
+        <v>0.1178</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,13 +4056,13 @@
         <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H78">
         <v>2.1</v>
@@ -4079,13 +4082,13 @@
         <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E79">
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H79">
         <v>1.79</v>
@@ -4105,13 +4108,13 @@
         <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H80">
         <v>0.75</v>
@@ -4125,25 +4128,25 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H81">
-        <v>0.2762</v>
+        <v>0.27689999999999998</v>
       </c>
       <c r="I81">
-        <v>0.2762</v>
+        <v>0.27689999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,10 +4154,10 @@
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4163,10 +4166,10 @@
         <v>52</v>
       </c>
       <c r="H82">
-        <v>1.1000000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="I82">
-        <v>1.1000000000000001</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,25 +4177,25 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
         <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H83">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I83">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4203,13 +4206,13 @@
         <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G84" t="s">
         <v>54</v>
@@ -4232,13 +4235,13 @@
         <v>55</v>
       </c>
       <c r="D85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H85">
         <v>2.4500000000000002</v>
@@ -4258,19 +4261,19 @@
         <v>56</v>
       </c>
       <c r="D86" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H86">
-        <v>0.70289999999999997</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="I86">
-        <v>0.70289999999999997</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4278,16 +4281,16 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E87">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H87">
         <v>1.0900000000000001</v>
@@ -4304,19 +4307,19 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E88">
         <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G88" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H88">
         <v>1.7000000000000001E-2</v>
@@ -4333,19 +4336,19 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D89" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E89">
         <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G89" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H89">
         <v>7.3700000000000002E-2</v>
@@ -4362,25 +4365,25 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E90">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H90">
-        <v>1.44E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I90">
-        <v>0.12959999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,19 +4394,19 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D91" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E91">
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G91" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H91">
         <v>0.1036</v>
@@ -4420,19 +4423,19 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G92" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H92">
         <v>0.13</v>
@@ -4449,19 +4452,19 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E93">
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G93" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4472,19 +4475,19 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G94" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H94">
         <v>2.3699999999999999E-2</v>
@@ -4501,25 +4504,25 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H95">
-        <v>3.5999999999999997E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="I95">
-        <v>7.1999999999999995E-2</v>
+        <v>0.1164</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4530,19 +4533,19 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E96">
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G96" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H96">
         <v>0.1103</v>
@@ -4559,25 +4562,25 @@
         <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D97" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E97">
         <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G97" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H97">
         <v>1.1000000000000001</v>
       </c>
       <c r="I97">
-        <v>6.63</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4588,19 +4591,19 @@
         <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D98" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G98" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H98">
         <v>4.3200000000000002E-2</v>
@@ -4617,19 +4620,19 @@
         <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G99" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H99">
         <v>0.90890000000000004</v>
@@ -4640,25 +4643,25 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G100" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H100">
         <v>0.189</v>
@@ -4669,25 +4672,25 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G101" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H101">
         <v>0.1</v>
@@ -4698,25 +4701,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E102">
         <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G102" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H102">
         <v>5.3800000000000001E-2</v>
@@ -4736,7 +4739,7 @@
         <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -4759,7 +4762,7 @@
         <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -4776,22 +4779,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E105">
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H105">
         <v>0.48</v>
@@ -4808,25 +4811,25 @@
         <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D106" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G106" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H106">
-        <v>0.35439999999999999</v>
+        <v>0.35880000000000001</v>
       </c>
       <c r="I106">
-        <v>0.35439999999999999</v>
+        <v>0.35880000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4840,13 +4843,13 @@
         <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E107">
         <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4857,16 +4860,16 @@
         <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D108" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E108">
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H108">
         <v>2.3E-2</v>
@@ -4880,19 +4883,19 @@
         <v>63</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>63</v>
       </c>
       <c r="D109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H109">
         <v>0.8</v>
@@ -4909,16 +4912,16 @@
         <v>96</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E110">
         <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G110">
         <v>500</v>
@@ -4938,19 +4941,19 @@
         <v>96</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G111" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H111">
         <v>4.0000000000000001E-3</v>
@@ -4967,19 +4970,19 @@
         <v>96</v>
       </c>
       <c r="C112" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D112" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G112" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H112">
         <v>7.5999999999999998E-2</v>
@@ -4996,19 +4999,19 @@
         <v>96</v>
       </c>
       <c r="C113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G113" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H113">
         <v>4.0000000000000001E-3</v>
@@ -5025,25 +5028,25 @@
         <v>96</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G114" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H114">
-        <v>4.0000000000000001E-3</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="I114">
-        <v>8.0000000000000002E-3</v>
+        <v>4.1599999999999996E-3</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5054,16 +5057,16 @@
         <v>96</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D115" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G115">
         <v>150</v>
@@ -5083,16 +5086,16 @@
         <v>96</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E116">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G116">
         <v>75</v>
@@ -5112,19 +5115,19 @@
         <v>96</v>
       </c>
       <c r="C117" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D117" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G117" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H117">
         <v>0.27939999999999998</v>
@@ -5141,19 +5144,19 @@
         <v>96</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D118" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G118" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H118">
         <v>0.30380000000000001</v>
@@ -5170,19 +5173,19 @@
         <v>96</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D119" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G119" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H119">
         <v>0.33</v>
@@ -5199,19 +5202,19 @@
         <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E120">
         <v>3</v>
       </c>
       <c r="F120" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G120" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H120">
         <v>4.8999999999999998E-3</v>
@@ -5228,19 +5231,19 @@
         <v>96</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D121" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G121" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H121">
         <v>0.32300000000000001</v>
@@ -5257,19 +5260,19 @@
         <v>96</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G122" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H122">
         <v>0.1145</v>
@@ -5286,19 +5289,19 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H123">
         <v>3.0000000000000001E-3</v>
@@ -5318,13 +5321,13 @@
         <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H124">
         <v>3.64</v>
@@ -5341,16 +5344,16 @@
         <v>96</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G125">
         <v>680</v>
@@ -5370,19 +5373,19 @@
         <v>96</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E126">
         <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H126">
         <v>0.1</v>
@@ -5399,19 +5402,19 @@
         <v>92</v>
       </c>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D127" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E127">
         <v>58</v>
       </c>
       <c r="F127" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G127" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H127">
         <v>6.1000000000000004E-3</v>
@@ -5428,19 +5431,19 @@
         <v>92</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D128" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G128" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H128">
         <v>0.61</v>
@@ -5457,19 +5460,19 @@
         <v>92</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E129">
         <v>20</v>
       </c>
       <c r="F129" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G129" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H129">
         <v>4.5999999999999999E-2</v>
@@ -5486,19 +5489,19 @@
         <v>92</v>
       </c>
       <c r="C130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D130" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E130">
         <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G130" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H130">
         <v>6.0000000000000001E-3</v>
@@ -5515,19 +5518,19 @@
         <v>92</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D131" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H131">
         <v>5.0000000000000001E-3</v>
@@ -5544,25 +5547,25 @@
         <v>92</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D132" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E132">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G132" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H132">
-        <v>3.3739999999999999E-2</v>
+        <v>3.3649999999999999E-2</v>
       </c>
       <c r="I132">
-        <v>0.77602000000000004</v>
+        <v>0.77392000000000005</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5573,19 +5576,19 @@
         <v>92</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D133" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E133">
         <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="G133" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H133">
         <v>0.1255</v>
@@ -5602,25 +5605,25 @@
         <v>92</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D134" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E134">
         <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H134">
-        <v>1.49E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I134">
-        <v>4.4699999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,19 +5634,19 @@
         <v>92</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D135" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G135" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H135">
         <v>4.1300000000000003E-2</v>
@@ -5660,19 +5663,19 @@
         <v>92</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D136" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G136" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H136">
         <v>0.35</v>
@@ -5689,19 +5692,19 @@
         <v>92</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D137" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E137">
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G137" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H137">
         <v>4.8500000000000001E-2</v>
@@ -5718,19 +5721,19 @@
         <v>92</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G138" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H138">
         <v>8.6999999999999994E-3</v>
@@ -5747,19 +5750,19 @@
         <v>92</v>
       </c>
       <c r="C139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G139" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H139">
         <v>9.1899999999999996E-2</v>
@@ -5776,19 +5779,19 @@
         <v>92</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D140" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G140" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H140">
         <v>1.5599999999999999E-2</v>
@@ -5808,13 +5811,13 @@
         <v>65</v>
       </c>
       <c r="D141" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E141">
         <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H141">
         <v>2.61</v>
@@ -5831,7 +5834,7 @@
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -5857,13 +5860,13 @@
         <v>66</v>
       </c>
       <c r="D143" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H143">
         <v>1.25</v>
@@ -5880,16 +5883,16 @@
         <v>134</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D144" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H144">
         <v>49.32</v>
@@ -5903,10 +5906,10 @@
         <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D145" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -5929,19 +5932,19 @@
         <v>96</v>
       </c>
       <c r="C146" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E146">
         <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G146" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H146">
         <v>1.2999999999999999E-2</v>
@@ -5958,16 +5961,16 @@
         <v>96</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D147" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E147">
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G147">
         <v>60</v>
@@ -5987,16 +5990,16 @@
         <v>96</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E148">
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6016,19 +6019,19 @@
         <v>96</v>
       </c>
       <c r="C149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D149" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E149">
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G149" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H149">
         <v>1.2999999999999999E-2</v>
@@ -6045,16 +6048,16 @@
         <v>96</v>
       </c>
       <c r="C150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D150" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E150">
         <v>4</v>
       </c>
       <c r="F150" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G150">
         <v>51</v>
@@ -6074,19 +6077,19 @@
         <v>96</v>
       </c>
       <c r="C151" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D151" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G151" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H151">
         <v>2.1100000000000001E-2</v>
@@ -6103,19 +6106,19 @@
         <v>96</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D152" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G152" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H152">
         <v>2.23E-2</v>
@@ -6135,13 +6138,13 @@
         <v>69</v>
       </c>
       <c r="D153" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E153">
         <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H153">
         <v>2.78</v>
@@ -6158,19 +6161,19 @@
         <v>96</v>
       </c>
       <c r="C154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D154" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E154">
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G154" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H154">
         <v>0.1</v>
@@ -6187,19 +6190,19 @@
         <v>92</v>
       </c>
       <c r="C155" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D155" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E155">
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G155" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H155">
         <v>0.1</v>
@@ -6216,19 +6219,19 @@
         <v>92</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D156" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E156">
         <v>7</v>
       </c>
       <c r="F156" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G156" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H156">
         <v>2.1000000000000001E-2</v>
@@ -6245,25 +6248,25 @@
         <v>92</v>
       </c>
       <c r="C157" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D157" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="G157" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="H157">
-        <v>0.57720000000000005</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I157">
-        <v>2.31</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6274,25 +6277,25 @@
         <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D158" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="G158" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="H158">
-        <v>5.6000000000000001E-2</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="I158">
-        <v>5.6000000000000001E-2</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6303,19 +6306,19 @@
         <v>92</v>
       </c>
       <c r="C159" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D159" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G159" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H159">
         <v>0.1</v>
@@ -6326,25 +6329,25 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E160">
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G160" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H160">
         <v>2.18E-2</v>
@@ -6355,25 +6358,25 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D161" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E161">
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G161" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H161">
         <v>1.2999999999999999E-2</v>
@@ -6393,13 +6396,13 @@
         <v>70</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H162">
         <v>2.61</v>
@@ -6413,19 +6416,19 @@
         <v>71</v>
       </c>
       <c r="C163" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G163" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H163">
         <v>0.1</v>
@@ -6436,25 +6439,25 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D164" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E164">
         <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G164" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H164">
         <v>8.2299999999999998E-2</v>
@@ -6465,31 +6468,31 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E165">
         <v>4</v>
       </c>
       <c r="F165" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G165" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H165">
-        <v>3.9E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I165">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6500,19 +6503,19 @@
         <v>137</v>
       </c>
       <c r="C166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G166" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H166">
         <v>0.26100000000000001</v>
@@ -6529,16 +6532,16 @@
         <v>99</v>
       </c>
       <c r="C167" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E167">
         <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H167">
         <v>1.33</v>
@@ -6555,22 +6558,22 @@
         <v>93</v>
       </c>
       <c r="C168" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D168" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H168">
-        <v>0.76349999999999996</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="I168">
-        <v>0.76349999999999996</v>
+        <v>0.76859999999999995</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6581,25 +6584,25 @@
         <v>96</v>
       </c>
       <c r="C169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D169" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E169">
         <v>6</v>
       </c>
       <c r="F169" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G169" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H169">
-        <v>1.9E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I169">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6610,16 +6613,16 @@
         <v>96</v>
       </c>
       <c r="C170" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G170">
         <v>470</v>
@@ -6639,19 +6642,19 @@
         <v>96</v>
       </c>
       <c r="C171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D171" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G171" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H171">
         <v>5.1499999999999997E-2</v>
@@ -6668,19 +6671,19 @@
         <v>96</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D172" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E172">
         <v>9</v>
       </c>
       <c r="F172" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G172" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H172">
         <v>4.0599999999999997E-2</v>
@@ -6697,13 +6700,13 @@
         <v>73</v>
       </c>
       <c r="D173" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G173" t="s">
         <v>73</v>
@@ -6723,22 +6726,22 @@
         <v>74</v>
       </c>
       <c r="D174" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G174" t="s">
         <v>74</v>
       </c>
       <c r="H174">
-        <v>0.99587000000000003</v>
+        <v>0.99317999999999995</v>
       </c>
       <c r="I174">
-        <v>0.99587000000000003</v>
+        <v>0.99317999999999995</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6746,19 +6749,19 @@
         <v>75</v>
       </c>
       <c r="B175" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C175" t="s">
         <v>75</v>
       </c>
       <c r="D175" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H175">
         <v>1.52</v>
@@ -6778,13 +6781,13 @@
         <v>76</v>
       </c>
       <c r="D176" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H176">
         <v>5.09</v>
@@ -6798,22 +6801,22 @@
         <v>77</v>
       </c>
       <c r="B177" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
         <v>77</v>
       </c>
       <c r="D177" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G177" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H177">
         <v>10.51</v>
@@ -6833,13 +6836,13 @@
         <v>78</v>
       </c>
       <c r="D178" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E178">
         <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H178">
         <v>1.57</v>
@@ -6853,22 +6856,22 @@
         <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C179" t="s">
         <v>79</v>
       </c>
       <c r="D179" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E179">
         <v>5</v>
       </c>
       <c r="F179" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G179" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H179">
         <v>2.2999999999999998</v>
@@ -6888,13 +6891,13 @@
         <v>80</v>
       </c>
       <c r="D180" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E180">
         <v>6</v>
       </c>
       <c r="F180" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H180">
         <v>0.75839999999999996</v>
@@ -6911,7 +6914,7 @@
         <v>81</v>
       </c>
       <c r="D181" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -6934,16 +6937,16 @@
         <v>82</v>
       </c>
       <c r="D182" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E182">
         <v>3</v>
       </c>
       <c r="F182" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G182" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H182">
         <v>4.03</v>
@@ -6960,7 +6963,7 @@
         <v>83</v>
       </c>
       <c r="D183" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -6986,13 +6989,13 @@
         <v>84</v>
       </c>
       <c r="D184" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H184">
         <v>1.56</v>
@@ -7006,22 +7009,22 @@
         <v>85</v>
       </c>
       <c r="C185" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D185" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H185">
-        <v>0.81764999999999999</v>
+        <v>0.81544000000000005</v>
       </c>
       <c r="I185">
-        <v>0.81764999999999999</v>
+        <v>0.81544000000000005</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7035,13 +7038,13 @@
         <v>86</v>
       </c>
       <c r="D186" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H186">
         <v>11.69</v>
@@ -7055,19 +7058,19 @@
         <v>87</v>
       </c>
       <c r="B187" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C187" t="s">
         <v>87</v>
       </c>
       <c r="D187" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H187">
         <v>0.44500000000000001</v>
@@ -7078,25 +7081,25 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D188" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G188" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H188">
         <v>1.45</v>
@@ -7113,19 +7116,19 @@
         <v>96</v>
       </c>
       <c r="C189" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G189" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H189">
         <v>1.6E-2</v>
@@ -7142,25 +7145,25 @@
         <v>96</v>
       </c>
       <c r="C190" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D190" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E190">
         <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G190">
         <v>510</v>
       </c>
       <c r="H190">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I190">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -7171,19 +7174,19 @@
         <v>96</v>
       </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D191" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E191">
         <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G191" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H191">
         <v>3.5000000000000003E-2</v>
@@ -7200,19 +7203,19 @@
         <v>96</v>
       </c>
       <c r="C192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D192" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G192" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H192">
         <v>0.25519999999999998</v>
@@ -7229,25 +7232,25 @@
         <v>96</v>
       </c>
       <c r="C193" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D193" t="s">
         <v>328</v>
       </c>
       <c r="E193">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
-      </c>
-      <c r="G193" t="s">
-        <v>537</v>
+        <v>397</v>
+      </c>
+      <c r="G193">
+        <v>0.05</v>
       </c>
       <c r="H193">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="I193">
-        <v>6.86</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -7258,109 +7261,109 @@
         <v>96</v>
       </c>
       <c r="C194" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D194" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>421</v>
-      </c>
-      <c r="G194">
-        <v>330</v>
+        <v>457</v>
+      </c>
+      <c r="G194" t="s">
+        <v>508</v>
       </c>
       <c r="H194">
-        <v>0.14000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="I194">
-        <v>0.14000000000000001</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B195" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C195" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="D195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>421</v>
-      </c>
-      <c r="G195">
-        <v>0.05</v>
+        <v>458</v>
       </c>
       <c r="H195">
-        <v>0.46</v>
+        <v>0.4677</v>
       </c>
       <c r="I195">
-        <v>0.46</v>
+        <v>0.93540000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C196" t="s">
         <v>274</v>
       </c>
       <c r="D196" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F196" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="G196" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="H196">
-        <v>0.63</v>
+        <v>1E-3</v>
       </c>
       <c r="I196">
-        <v>1.26</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C197" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="D197" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>457</v>
+        <v>385</v>
+      </c>
+      <c r="G197" t="s">
+        <v>538</v>
       </c>
       <c r="H197">
-        <v>0.4677</v>
+        <v>0.1</v>
       </c>
       <c r="I197">
-        <v>0.93540000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -7371,161 +7374,161 @@
         <v>92</v>
       </c>
       <c r="C198" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D198" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G198" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="H198">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="I198">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1</v>
+      <c r="A199">
+        <v>74477110</v>
       </c>
       <c r="B199" t="s">
-        <v>92</v>
-      </c>
-      <c r="C199" t="s">
-        <v>276</v>
+        <v>143</v>
+      </c>
+      <c r="C199">
+        <v>74477110</v>
       </c>
       <c r="D199" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
-      </c>
-      <c r="G199" t="s">
-        <v>538</v>
+        <v>459</v>
       </c>
       <c r="H199">
-        <v>0.1</v>
+        <v>2.12</v>
       </c>
       <c r="I199">
-        <v>0.1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1</v>
+      <c r="A200">
+        <v>744042004</v>
       </c>
       <c r="B200" t="s">
-        <v>92</v>
-      </c>
-      <c r="C200" t="s">
-        <v>277</v>
+        <v>144</v>
+      </c>
+      <c r="C200">
+        <v>744042004</v>
       </c>
       <c r="D200" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
-      </c>
-      <c r="G200" t="s">
-        <v>539</v>
+        <v>460</v>
       </c>
       <c r="H200">
-        <v>0.1</v>
+        <v>1.43</v>
       </c>
       <c r="I200">
-        <v>0.2</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>74477110</v>
+        <v>74438323100</v>
       </c>
       <c r="B201" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C201">
-        <v>74477110</v>
+        <v>74438323100</v>
       </c>
       <c r="D201" t="s">
+        <v>337</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>461</v>
+      </c>
+      <c r="H201">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I201">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202">
+        <v>885012007066</v>
+      </c>
+      <c r="D202" t="s">
+        <v>328</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>386</v>
+      </c>
+      <c r="G202" t="s">
+        <v>540</v>
+      </c>
+      <c r="H202">
+        <v>0.19</v>
+      </c>
+      <c r="I202">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203">
+        <v>885012207127</v>
+      </c>
+      <c r="D203" t="s">
         <v>330</v>
       </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201" t="s">
-        <v>458</v>
-      </c>
-      <c r="H201">
-        <v>2.12</v>
-      </c>
-      <c r="I201">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>744042004</v>
-      </c>
-      <c r="B202" t="s">
-        <v>144</v>
-      </c>
-      <c r="C202">
-        <v>744042004</v>
-      </c>
-      <c r="D202" t="s">
-        <v>330</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202" t="s">
-        <v>459</v>
-      </c>
-      <c r="H202">
-        <v>1.43</v>
-      </c>
-      <c r="I202">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>74438323100</v>
-      </c>
-      <c r="B203" t="s">
-        <v>145</v>
-      </c>
-      <c r="C203">
-        <v>74438323100</v>
-      </c>
-      <c r="D203" t="s">
-        <v>336</v>
-      </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>460</v>
+        <v>386</v>
+      </c>
+      <c r="G203" t="s">
+        <v>541</v>
       </c>
       <c r="H203">
-        <v>1.1299999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I203">
-        <v>1.1299999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -7536,94 +7539,85 @@
         <v>92</v>
       </c>
       <c r="C204">
-        <v>885012007066</v>
+        <v>885012208079</v>
       </c>
       <c r="D204" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G204" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="H204">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I204">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C205">
-        <v>885012207127</v>
+        <v>744771008</v>
       </c>
       <c r="D205" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
-      <c r="F205" t="s">
-        <v>385</v>
+      <c r="F205">
+        <v>744771008</v>
       </c>
       <c r="G205" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H205">
-        <v>0.1</v>
+        <v>2.12</v>
       </c>
       <c r="I205">
-        <v>0.1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1</v>
-      </c>
-      <c r="B206" t="s">
-        <v>92</v>
-      </c>
-      <c r="C206">
-        <v>885012208079</v>
+        <v>89</v>
+      </c>
+      <c r="C206" t="s">
+        <v>277</v>
       </c>
       <c r="D206" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>421</v>
-      </c>
-      <c r="G206" t="s">
-        <v>523</v>
+        <v>384</v>
       </c>
       <c r="H206">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I206">
-        <v>0.24</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>19</v>
-      </c>
-      <c r="B207" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207">
-        <v>744771008</v>
+        <v>90</v>
+      </c>
+      <c r="C207" t="s">
+        <v>90</v>
       </c>
       <c r="D207" t="s">
         <v>327</v>
@@ -7631,63 +7625,72 @@
       <c r="E207">
         <v>1</v>
       </c>
-      <c r="F207">
-        <v>744771008</v>
-      </c>
-      <c r="G207" t="s">
-        <v>542</v>
+      <c r="F207" t="s">
+        <v>462</v>
       </c>
       <c r="H207">
-        <v>2.12</v>
+        <v>28.91</v>
       </c>
       <c r="I207">
-        <v>2.12</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
       </c>
       <c r="C208" t="s">
         <v>278</v>
       </c>
       <c r="D208" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="E208">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F208" t="s">
-        <v>383</v>
+        <v>385</v>
+      </c>
+      <c r="G208" t="s">
+        <v>543</v>
       </c>
       <c r="H208">
-        <v>0.14000000000000001</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I208">
-        <v>4.62</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>92</v>
       </c>
       <c r="C209" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="D209" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>461</v>
+        <v>384</v>
+      </c>
+      <c r="G209" t="s">
+        <v>544</v>
       </c>
       <c r="H209">
-        <v>28.91</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="I209">
-        <v>28.91</v>
+        <v>6.4199999999999993E-2</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -7698,25 +7701,25 @@
         <v>92</v>
       </c>
       <c r="C210" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D210" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E210">
         <v>2</v>
       </c>
       <c r="F210" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G210" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="H210">
-        <v>3.3E-3</v>
+        <v>0.1176</v>
       </c>
       <c r="I210">
-        <v>6.6E-3</v>
+        <v>0.23519999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7727,25 +7730,25 @@
         <v>92</v>
       </c>
       <c r="C211" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D211" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="E211">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F211" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G211" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H211">
-        <v>1.0699999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I211">
-        <v>6.4199999999999993E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7756,25 +7759,25 @@
         <v>92</v>
       </c>
       <c r="C212" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D212" t="s">
         <v>327</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F212" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="G212" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H212">
-        <v>0.1176</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I212">
-        <v>0.23519999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7785,25 +7788,25 @@
         <v>92</v>
       </c>
       <c r="C213" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D213" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G213" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="H213">
-        <v>3.2000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I213">
-        <v>6.4000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7814,25 +7817,25 @@
         <v>92</v>
       </c>
       <c r="C214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D214" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="E214">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G214" t="s">
         <v>546</v>
       </c>
       <c r="H214">
-        <v>5.1999999999999998E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="I214">
-        <v>7.8E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7843,25 +7846,25 @@
         <v>92</v>
       </c>
       <c r="C215" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D215" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E215">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F215" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G215" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="H215">
-        <v>3.5999999999999999E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="I215">
-        <v>1.7999999999999999E-2</v>
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7872,25 +7875,25 @@
         <v>92</v>
       </c>
       <c r="C216" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D216" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="E216">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G216" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="H216">
-        <v>3.0000000000000001E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="I216">
-        <v>4.2000000000000003E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7901,25 +7904,25 @@
         <v>92</v>
       </c>
       <c r="C217" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D217" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G217" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H217">
-        <v>8.5000000000000006E-3</v>
+        <v>2.24E-2</v>
       </c>
       <c r="I217">
-        <v>8.5000000000000006E-3</v>
+        <v>2.24E-2</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7930,25 +7933,25 @@
         <v>92</v>
       </c>
       <c r="C218" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D218" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G218" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="H218">
-        <v>4.7000000000000002E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I218">
-        <v>1.41E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7959,25 +7962,25 @@
         <v>92</v>
       </c>
       <c r="C219" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D219" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G219" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H219">
-        <v>8.6999999999999994E-3</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="I219">
-        <v>8.6999999999999994E-3</v>
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7988,25 +7991,25 @@
         <v>92</v>
       </c>
       <c r="C220" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D220" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G220" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H220">
-        <v>2.24E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="I220">
-        <v>2.24E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8017,25 +8020,25 @@
         <v>92</v>
       </c>
       <c r="C221" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D221" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F221" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G221" t="s">
-        <v>470</v>
+        <v>551</v>
       </c>
       <c r="H221">
-        <v>3.5999999999999999E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="I221">
-        <v>3.5999999999999999E-3</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8046,25 +8049,25 @@
         <v>92</v>
       </c>
       <c r="C222" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D222" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="E222">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F222" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G222" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H222">
-        <v>3.3300000000000003E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="I222">
-        <v>6.6600000000000006E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8075,7 +8078,7 @@
         <v>92</v>
       </c>
       <c r="C223" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D223" t="s">
         <v>327</v>
@@ -8084,74 +8087,74 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G223" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="H223">
-        <v>2.4299999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="I223">
-        <v>2.4299999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C224" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D224" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E224">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F224" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G224" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="H224">
-        <v>5.4000000000000003E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I224">
-        <v>9.7199999999999995E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C225" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D225" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F225" t="s">
         <v>384</v>
       </c>
-      <c r="G225" t="s">
-        <v>516</v>
+      <c r="G225">
+        <v>470</v>
       </c>
       <c r="H225">
-        <v>1.55E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I225">
-        <v>1.55E-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8162,25 +8165,25 @@
         <v>96</v>
       </c>
       <c r="C226" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D226" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="E226">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F226" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G226" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="H226">
         <v>1.2E-2</v>
       </c>
       <c r="I226">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8191,25 +8194,25 @@
         <v>96</v>
       </c>
       <c r="C227" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D227" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="E227">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>383</v>
-      </c>
-      <c r="G227">
-        <v>470</v>
+        <v>385</v>
+      </c>
+      <c r="G227" t="s">
+        <v>531</v>
       </c>
       <c r="H227">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I227">
-        <v>0.24</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8220,25 +8223,25 @@
         <v>96</v>
       </c>
       <c r="C228" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D228" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E228">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F228" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G228" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="H228">
-        <v>1.2999999999999999E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I228">
-        <v>0.45500000000000002</v>
+        <v>1.89E-2</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8249,25 +8252,25 @@
         <v>96</v>
       </c>
       <c r="C229" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D229" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="E229">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
         <v>384</v>
       </c>
-      <c r="G229" t="s">
-        <v>553</v>
+      <c r="G229">
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>8.9999999999999998E-4</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="I229">
-        <v>1.89E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8278,25 +8281,25 @@
         <v>96</v>
       </c>
       <c r="C230" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D230" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F230" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>2.5999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="I230">
-        <v>2.5999999999999999E-3</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8307,25 +8310,25 @@
         <v>96</v>
       </c>
       <c r="C231" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D231" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="E231">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="H231">
-        <v>1.6000000000000001E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="I231">
-        <v>2.7199999999999998E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8336,16 +8339,16 @@
         <v>96</v>
       </c>
       <c r="C232" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D232" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E232">
         <v>19</v>
       </c>
       <c r="F232" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G232">
         <v>330</v>
@@ -8365,19 +8368,19 @@
         <v>96</v>
       </c>
       <c r="C233" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D233" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E233">
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G233" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H233">
         <v>0.38</v>
@@ -8394,16 +8397,16 @@
         <v>96</v>
       </c>
       <c r="C234" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D234" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E234">
         <v>9</v>
       </c>
       <c r="F234" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G234">
         <v>470</v>
@@ -8423,19 +8426,19 @@
         <v>96</v>
       </c>
       <c r="C235" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D235" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E235">
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G235" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H235">
         <v>3.0999999999999999E-3</v>
@@ -8452,16 +8455,16 @@
         <v>96</v>
       </c>
       <c r="C236" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D236" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E236">
         <v>5</v>
       </c>
       <c r="F236" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G236">
         <v>50</v>
@@ -8481,16 +8484,16 @@
         <v>96</v>
       </c>
       <c r="C237" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D237" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E237">
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G237">
         <v>100</v>
@@ -8510,25 +8513,25 @@
         <v>96</v>
       </c>
       <c r="C238" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D238" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E238">
         <v>2</v>
       </c>
       <c r="F238" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="G238" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H238">
-        <v>9.1000000000000004E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I238">
-        <v>1.8200000000000001E-2</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8539,19 +8542,19 @@
         <v>96</v>
       </c>
       <c r="C239" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D239" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G239" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H239">
         <v>9.5899999999999999E-2</v>
@@ -8568,19 +8571,19 @@
         <v>96</v>
       </c>
       <c r="C240" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D240" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G240" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H240">
         <v>5.1499999999999997E-2</v>
@@ -8597,19 +8600,19 @@
         <v>96</v>
       </c>
       <c r="C241" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D241" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E241">
         <v>2</v>
       </c>
       <c r="F241" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G241" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H241">
         <v>1.1000000000000001E-3</v>
@@ -8626,19 +8629,19 @@
         <v>96</v>
       </c>
       <c r="C242" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D242" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E242">
         <v>6</v>
       </c>
       <c r="F242" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G242" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H242">
         <v>1.2E-2</v>
@@ -8655,16 +8658,16 @@
         <v>96</v>
       </c>
       <c r="C243" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D243" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E243">
         <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -8684,16 +8687,16 @@
         <v>96</v>
       </c>
       <c r="C244" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D244" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E244">
         <v>1</v>
       </c>
       <c r="F244" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G244">
         <v>100</v>
@@ -8713,16 +8716,16 @@
         <v>96</v>
       </c>
       <c r="C245" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D245" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E245">
         <v>5</v>
       </c>
       <c r="F245" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G245">
         <v>10</v>
@@ -8742,19 +8745,19 @@
         <v>96</v>
       </c>
       <c r="C246" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D246" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E246">
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G246" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H246">
         <v>5.7700000000000001E-2</v>
@@ -8771,19 +8774,19 @@
         <v>96</v>
       </c>
       <c r="C247" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D247" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E247">
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G247" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H247">
         <v>1.61E-2</v>
@@ -8800,19 +8803,19 @@
         <v>96</v>
       </c>
       <c r="C248" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D248" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E248">
         <v>2</v>
       </c>
       <c r="F248" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G248" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H248">
         <v>1.2E-2</v>
@@ -8829,19 +8832,19 @@
         <v>96</v>
       </c>
       <c r="C249" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D249" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E249">
         <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G249" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H249">
         <v>1.8E-3</v>
@@ -8858,16 +8861,16 @@
         <v>96</v>
       </c>
       <c r="C250" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D250" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E250">
         <v>1</v>
       </c>
       <c r="F250" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G250">
         <v>160</v>
@@ -8887,25 +8890,25 @@
         <v>96</v>
       </c>
       <c r="C251" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D251" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E251">
         <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G251">
         <v>260</v>
       </c>
       <c r="H251">
-        <v>9.5899999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I251">
-        <v>9.5899999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8916,19 +8919,19 @@
         <v>96</v>
       </c>
       <c r="C252" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D252" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E252">
         <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G252" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H252">
         <v>0.1</v>
@@ -8945,19 +8948,19 @@
         <v>96</v>
       </c>
       <c r="C253" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D253" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E253">
         <v>1</v>
       </c>
       <c r="F253" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G253" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H253">
         <v>9.0300000000000005E-2</v>
@@ -8974,19 +8977,19 @@
         <v>130</v>
       </c>
       <c r="C254" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D254" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E254">
         <v>1</v>
       </c>
       <c r="F254" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G254" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H254">
         <v>9.8000000000000004E-2</v>
